--- a/PlayerPerformances.xlsx
+++ b/PlayerPerformances.xlsx
@@ -642,40 +642,40 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.618320610687023</v>
+        <v>1.58955223880597</v>
       </c>
       <c r="F4" t="n">
-        <v>1.106870229007634</v>
+        <v>1.082089552238806</v>
       </c>
       <c r="G4" t="n">
-        <v>2.396946564885496</v>
+        <v>2.343283582089552</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2137404580152672</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07633587786259542</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04580152671755725</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02290076335877863</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="L4" t="n">
-        <v>3.33587786259542</v>
+        <v>3.283582089552239</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1450381679389313</v>
+        <v>0.1417910447761194</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1297709923664122</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="O4" t="n">
-        <v>1.374045801526718</v>
+        <v>1.350746268656716</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1679389312977099</v>
+        <v>0.1641791044776119</v>
       </c>
     </row>
     <row r="5">
@@ -698,40 +698,40 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.380952380952381</v>
+        <v>3.348837209302326</v>
       </c>
       <c r="F5" t="n">
-        <v>1.285714285714286</v>
+        <v>1.232558139534884</v>
       </c>
       <c r="G5" t="n">
-        <v>3.396825396825397</v>
+        <v>3.410852713178294</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5793650793650794</v>
+        <v>0.5891472868217055</v>
       </c>
       <c r="I5" t="n">
         <v>0.3333333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>6.238095238095238</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4126984126984127</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="L5" t="n">
-        <v>7.325396825396825</v>
+        <v>7.372093023255814</v>
       </c>
       <c r="M5" t="n">
-        <v>0.746031746031746</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="O5" t="n">
-        <v>2.619047619047619</v>
+        <v>2.596899224806202</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4186046511627907</v>
       </c>
     </row>
     <row r="6">
@@ -754,19 +754,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2440944881889764</v>
+        <v>0.2384615384615385</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7480314960629921</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1889763779527559</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03149606299212598</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3307086614173229</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="M6" t="n">
-        <v>0.03149606299212598</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02362204724409449</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1259842519685039</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08661417322834646</v>
+        <v>0.08461538461538462</v>
       </c>
     </row>
     <row r="7">
@@ -866,40 +866,40 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.401041666666667</v>
+        <v>1.425641025641026</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8125</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="G8" t="n">
-        <v>2.265625</v>
+        <v>2.287179487179487</v>
       </c>
       <c r="H8" t="n">
-        <v>0.265625</v>
+        <v>0.2717948717948718</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09375</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9791666666666666</v>
+        <v>0.9641025641025641</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05208333333333334</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="L8" t="n">
-        <v>2.140625</v>
+        <v>2.153846153846154</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1302083333333333</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="N8" t="n">
-        <v>0.140625</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="O8" t="n">
-        <v>1.026041666666667</v>
+        <v>1.051282051282051</v>
       </c>
       <c r="P8" t="n">
-        <v>0.28125</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="9">
@@ -922,19 +922,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.2264150943396226</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01886792452830189</v>
+        <v>-0.01785714285714286</v>
       </c>
       <c r="G9" t="n">
-        <v>1.584905660377359</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2264150943396226</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01886792452830189</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1320754716981132</v>
+        <v>0.125</v>
       </c>
       <c r="P9" t="n">
-        <v>0.05660377358490566</v>
+        <v>0.05357142857142857</v>
       </c>
     </row>
     <row r="10">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.0963855421686747</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1807228915662651</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -993,25 +993,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1686746987951807</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2168674698795181</v>
+        <v>0.2093023255813954</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01204819277108434</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01204819277108434</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07228915662650602</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="11">
@@ -1034,40 +1034,40 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.344827586206897</v>
+        <v>1.310924369747899</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2413793103448276</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="G11" t="n">
-        <v>1.387931034482759</v>
+        <v>1.352941176470588</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2241379310344828</v>
+        <v>0.2184873949579832</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07758620689655173</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05172413793103448</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="L11" t="n">
-        <v>3.517241379310345</v>
+        <v>3.428571428571428</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4310344827586207</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="N11" t="n">
-        <v>0.396551724137931</v>
+        <v>0.3865546218487395</v>
       </c>
       <c r="O11" t="n">
-        <v>1.181034482758621</v>
+        <v>1.151260504201681</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08620689655172414</v>
+        <v>0.08403361344537816</v>
       </c>
     </row>
     <row r="12">
@@ -1090,40 +1090,40 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.81203007518797</v>
+        <v>1.794117647058824</v>
       </c>
       <c r="F12" t="n">
-        <v>1.015037593984963</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>2.601503759398496</v>
+        <v>2.602941176470588</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4060150375939849</v>
+        <v>0.4044117647058824</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2330827067669173</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07518796992481203</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2.458646616541353</v>
+        <v>2.448529411764706</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2030075187969925</v>
+        <v>0.1985294117647059</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1879699248120301</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="O12" t="n">
-        <v>1.097744360902256</v>
+        <v>1.080882352941176</v>
       </c>
       <c r="P12" t="n">
-        <v>0.481203007518797</v>
+        <v>0.4779411764705883</v>
       </c>
     </row>
     <row r="13">
@@ -1202,37 +1202,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.68</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="G14" t="n">
-        <v>1.36</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="K14" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="L14" t="n">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="N14" t="n">
-        <v>0.12</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.214953271028038</v>
+        <v>4.2</v>
       </c>
       <c r="F16" t="n">
-        <v>2.065420560747663</v>
+        <v>2.045454545454545</v>
       </c>
       <c r="G16" t="n">
-        <v>2.869158878504673</v>
+        <v>2.945454545454545</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6074766355140186</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1869158878504673</v>
+        <v>0.2</v>
       </c>
       <c r="J16" t="n">
-        <v>6.149532710280374</v>
+        <v>6.118181818181818</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4672897196261682</v>
+        <v>0.4636363636363636</v>
       </c>
       <c r="L16" t="n">
-        <v>9.355140186915888</v>
+        <v>9.381818181818181</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4953271028037383</v>
+        <v>0.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5794392523364486</v>
+        <v>0.5727272727272728</v>
       </c>
       <c r="O16" t="n">
-        <v>3.560747663551402</v>
+        <v>3.545454545454545</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4672897196261682</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="17">
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.3953488372093023</v>
+        <v>-0.3932584269662922</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01162790697674419</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7.244186046511628</v>
+        <v>7.314606741573034</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5116279069767442</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01162790697674419</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1482,40 +1482,40 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="G19" t="n">
-        <v>1.796296296296296</v>
+        <v>1.859649122807018</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="P19" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="20">
@@ -1538,40 +1538,40 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.28125</v>
+        <v>0.2686567164179104</v>
       </c>
       <c r="F20" t="n">
-        <v>0.140625</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="G20" t="n">
-        <v>0.265625</v>
+        <v>0.2537313432835821</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0625</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.046875</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.578125</v>
+        <v>0.5522388059701493</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03125</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="N20" t="n">
-        <v>0.046875</v>
+        <v>0.04477611940298507</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1875</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="P20" t="n">
-        <v>0.09375</v>
+        <v>0.08955223880597014</v>
       </c>
     </row>
     <row r="21">
@@ -1650,40 +1650,40 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7079646017699115</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="G22" t="n">
-        <v>1.054545454545454</v>
+        <v>1.04424778761062</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1636363636363636</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="I22" t="n">
-        <v>0.06363636363636363</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="J22" t="n">
-        <v>1.436363636363636</v>
+        <v>1.415929203539823</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="L22" t="n">
-        <v>1.554545454545454</v>
+        <v>1.584070796460177</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1454545454545454</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="N22" t="n">
-        <v>0.1272727272727273</v>
+        <v>0.1238938053097345</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5727272727272728</v>
+        <v>0.5752212389380531</v>
       </c>
       <c r="P22" t="n">
-        <v>0.07272727272727272</v>
+        <v>0.07079646017699115</v>
       </c>
     </row>
     <row r="23">
@@ -1706,25 +1706,25 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2333333333333333</v>
+        <v>-0.2222222222222222</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01666666666666667</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="J23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1762,40 +1762,40 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.115384615384615</v>
+        <v>1.157894736842105</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5923076923076923</v>
+        <v>0.6240601503759399</v>
       </c>
       <c r="G24" t="n">
-        <v>1.692307692307692</v>
+        <v>1.721804511278195</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="L24" t="n">
-        <v>1.484615384615385</v>
+        <v>1.511278195488722</v>
       </c>
       <c r="M24" t="n">
-        <v>0.08461538461538462</v>
+        <v>0.09022556390977443</v>
       </c>
       <c r="N24" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.07518796992481203</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6384615384615384</v>
+        <v>0.6766917293233082</v>
       </c>
       <c r="P24" t="n">
-        <v>0.3692307692307693</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="25">
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.008474576271186441</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1949152542372881</v>
+        <v>-0.1900826446280992</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4.47457627118644</v>
+        <v>4.479338842975206</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.1983471074380165</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0423728813559322</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.008474576271186441</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -2042,40 +2042,40 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.032258064516129</v>
+        <v>1.015384615384615</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="G29" t="n">
-        <v>3.806451612903226</v>
+        <v>3.815384615384616</v>
       </c>
       <c r="H29" t="n">
-        <v>0.3387096774193548</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="I29" t="n">
-        <v>0.1774193548387097</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="J29" t="n">
-        <v>0.04838709677419355</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="K29" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L29" t="n">
-        <v>1.596774193548387</v>
+        <v>1.584615384615385</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="N29" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="O29" t="n">
-        <v>0.6290322580645161</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="P29" t="n">
-        <v>0.2258064516129032</v>
+        <v>0.2153846153846154</v>
       </c>
     </row>
     <row r="30">
@@ -2154,40 +2154,40 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.862745098039216</v>
+        <v>1.925925925925926</v>
       </c>
       <c r="F31" t="n">
-        <v>1.372549019607843</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="G31" t="n">
-        <v>2.098039215686275</v>
+        <v>2.185185185185185</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2745098039215687</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="I31" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1372549019607843</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2.686274509803921</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="M31" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="N31" t="n">
-        <v>0.09803921568627451</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="O31" t="n">
-        <v>1.490196078431373</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="P31" t="n">
-        <v>0.3137254901960784</v>
+        <v>0.3703703703703703</v>
       </c>
     </row>
     <row r="32">
@@ -2210,37 +2210,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>-0.03846153846153846</v>
       </c>
       <c r="G32" t="n">
-        <v>1.304347826086957</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J32" t="n">
-        <v>0.391304347826087</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="M32" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="N32" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -2266,28 +2266,28 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.1203007518796992</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="G33" t="n">
-        <v>1.383458646616541</v>
+        <v>1.375</v>
       </c>
       <c r="H33" t="n">
-        <v>0.112781954887218</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="I33" t="n">
-        <v>0.07518796992481203</v>
+        <v>0.07352941176470588</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01503759398496241</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.03759398496240601</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.007518796992481203</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="P33" t="n">
-        <v>0.03759398496240601</v>
+        <v>0.03676470588235294</v>
       </c>
     </row>
     <row r="34">
@@ -2322,19 +2322,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.8596491228070176</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="G34" t="n">
-        <v>3.111111111111111</v>
+        <v>3.035087719298246</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2343,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.185185185185185</v>
+        <v>1.157894736842105</v>
       </c>
       <c r="M34" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N34" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="O34" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="P34" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.2280701754385965</v>
       </c>
     </row>
     <row r="35">
@@ -2378,13 +2378,13 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.1818181818181818</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L35" t="n">
-        <v>0.2727272727272727</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -2434,40 +2434,40 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.440944881889764</v>
+        <v>1.446153846153846</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8503937007874016</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="G36" t="n">
-        <v>1.47244094488189</v>
+        <v>1.507692307692308</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2125984251968504</v>
+        <v>0.2076923076923077</v>
       </c>
       <c r="I36" t="n">
-        <v>0.05511811023622047</v>
+        <v>0.05384615384615385</v>
       </c>
       <c r="J36" t="n">
-        <v>0.07874015748031496</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K36" t="n">
-        <v>0.007874015748031496</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="L36" t="n">
-        <v>2.480314960629921</v>
+        <v>2.484615384615385</v>
       </c>
       <c r="M36" t="n">
-        <v>0.1732283464566929</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="N36" t="n">
-        <v>0.1968503937007874</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="O36" t="n">
-        <v>1.133858267716535</v>
+        <v>1.123076923076923</v>
       </c>
       <c r="P36" t="n">
-        <v>0.2519685039370079</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="37">
@@ -2490,40 +2490,40 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.7288135593220338</v>
+        <v>1.016129032258065</v>
       </c>
       <c r="F37" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1186440677966102</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="J37" t="n">
-        <v>1.508474576271186</v>
+        <v>1.838709677419355</v>
       </c>
       <c r="K37" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L37" t="n">
-        <v>1.88135593220339</v>
+        <v>2.32258064516129</v>
       </c>
       <c r="M37" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.2258064516129032</v>
       </c>
       <c r="O37" t="n">
-        <v>0.6440677966101694</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="P37" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="38">
@@ -2546,40 +2546,40 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.570247933884298</v>
+        <v>2.612903225806452</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9669421487603306</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>2.685950413223141</v>
+        <v>2.75</v>
       </c>
       <c r="H38" t="n">
-        <v>0.371900826446281</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2148760330578512</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="J38" t="n">
-        <v>0.008264462809917356</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>6.12396694214876</v>
+        <v>6.25</v>
       </c>
       <c r="M38" t="n">
-        <v>0.768595041322314</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="N38" t="n">
-        <v>0.4628099173553719</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="O38" t="n">
-        <v>2.165289256198347</v>
+        <v>2.209677419354839</v>
       </c>
       <c r="P38" t="n">
-        <v>0.1900826446280992</v>
+        <v>0.1935483870967742</v>
       </c>
     </row>
     <row r="39">
@@ -2602,40 +2602,40 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.552083333333333</v>
+        <v>2.505050505050505</v>
       </c>
       <c r="F39" t="n">
-        <v>1.21875</v>
+        <v>1.181818181818182</v>
       </c>
       <c r="G39" t="n">
-        <v>2.875</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05208333333333334</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0625</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9375</v>
+        <v>3.95959595959596</v>
       </c>
       <c r="K39" t="n">
-        <v>0.2291666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L39" t="n">
-        <v>6.635416666666667</v>
+        <v>6.626262626262626</v>
       </c>
       <c r="M39" t="n">
-        <v>0.5104166666666666</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="N39" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="O39" t="n">
-        <v>2.28125</v>
+        <v>2.232323232323232</v>
       </c>
       <c r="P39" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.202020202020202</v>
       </c>
     </row>
     <row r="40">
@@ -2658,40 +2658,40 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.564102564102564</v>
+        <v>1.506172839506173</v>
       </c>
       <c r="F40" t="n">
-        <v>1.038461538461539</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>2.407407407407407</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="I40" t="n">
-        <v>0.141025641025641</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="J40" t="n">
-        <v>0.08974358974358974</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="K40" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="L40" t="n">
-        <v>1.948717948717949</v>
+        <v>1.876543209876543</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="P40" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="41">
@@ -2770,40 +2770,40 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.876288659793814</v>
+        <v>2.883248730964467</v>
       </c>
       <c r="F42" t="n">
-        <v>1.04639175257732</v>
+        <v>1.040609137055837</v>
       </c>
       <c r="G42" t="n">
-        <v>3.427835051546392</v>
+        <v>3.426395939086294</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4329896907216495</v>
+        <v>0.4263959390862944</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1958762886597938</v>
+        <v>0.1928934010152284</v>
       </c>
       <c r="J42" t="n">
-        <v>4.510309278350515</v>
+        <v>4.527918781725888</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2938144329896907</v>
+        <v>0.2893401015228426</v>
       </c>
       <c r="L42" t="n">
-        <v>7.046391752577319</v>
+        <v>7.111675126903553</v>
       </c>
       <c r="M42" t="n">
-        <v>0.5515463917525774</v>
+        <v>0.5583756345177665</v>
       </c>
       <c r="N42" t="n">
-        <v>0.5515463917525774</v>
+        <v>0.5685279187817259</v>
       </c>
       <c r="O42" t="n">
-        <v>2.335051546391753</v>
+        <v>2.350253807106599</v>
       </c>
       <c r="P42" t="n">
-        <v>0.345360824742268</v>
+        <v>0.3401015228426396</v>
       </c>
     </row>
     <row r="43">
@@ -2826,40 +2826,40 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.328125</v>
+        <v>2.328358208955224</v>
       </c>
       <c r="F43" t="n">
-        <v>1.453125</v>
+        <v>1.447761194029851</v>
       </c>
       <c r="G43" t="n">
-        <v>3.21875</v>
+        <v>3.164179104477612</v>
       </c>
       <c r="H43" t="n">
-        <v>0.296875</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="I43" t="n">
-        <v>0.15625</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1875</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="K43" t="n">
-        <v>0.046875</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="L43" t="n">
-        <v>3.65625</v>
+        <v>3.686567164179105</v>
       </c>
       <c r="M43" t="n">
-        <v>0.34375</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1875</v>
+        <v>0.1791044776119403</v>
       </c>
       <c r="O43" t="n">
-        <v>1.703125</v>
+        <v>1.686567164179104</v>
       </c>
       <c r="P43" t="n">
-        <v>0.46875</v>
+        <v>0.4925373134328358</v>
       </c>
     </row>
     <row r="44">
@@ -2882,40 +2882,40 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3.698412698412699</v>
+        <v>3.924242424242424</v>
       </c>
       <c r="F44" t="n">
-        <v>1.555555555555556</v>
+        <v>1.742424242424242</v>
       </c>
       <c r="G44" t="n">
-        <v>2.301587301587301</v>
+        <v>2.348484848484849</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3174603174603174</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="I44" t="n">
-        <v>0.126984126984127</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="L44" t="n">
-        <v>8.222222222222221</v>
+        <v>8.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.095238095238095</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="N44" t="n">
-        <v>0.7301587301587301</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="O44" t="n">
-        <v>3.222222222222222</v>
+        <v>3.454545454545455</v>
       </c>
       <c r="P44" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.3484848484848485</v>
       </c>
     </row>
     <row r="45">
@@ -2938,16 +2938,16 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.02941176470588235</v>
+        <v>-0.02702702702702703</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1.705882352941176</v>
+        <v>1.567567567567568</v>
       </c>
       <c r="M45" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="O45" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -2994,19 +2994,19 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.75</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="F46" t="n">
-        <v>0.65</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>3.260869565217391</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -3015,19 +3015,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.7</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="P46" t="n">
-        <v>0.15</v>
+        <v>0.2173913043478261</v>
       </c>
     </row>
     <row r="47">
@@ -3050,40 +3050,40 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.525423728813559</v>
+        <v>1.451612903225806</v>
       </c>
       <c r="F47" t="n">
-        <v>0.288135593220339</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="G47" t="n">
-        <v>1.389830508474576</v>
+        <v>1.32258064516129</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1355932203389831</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="J47" t="n">
-        <v>3.203389830508474</v>
+        <v>3.080645161290323</v>
       </c>
       <c r="K47" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L47" t="n">
-        <v>3.88135593220339</v>
+        <v>3.741935483870968</v>
       </c>
       <c r="M47" t="n">
-        <v>0.3050847457627119</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="N47" t="n">
-        <v>0.3389830508474576</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="O47" t="n">
-        <v>1.23728813559322</v>
+        <v>1.17741935483871</v>
       </c>
       <c r="P47" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.1451612903225807</v>
       </c>
     </row>
     <row r="48">
@@ -3109,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.02380952380952381</v>
+        <v>-0.02222222222222222</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3121,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="K48" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -3162,40 +3162,40 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.610169491525424</v>
+        <v>1.532258064516129</v>
       </c>
       <c r="F49" t="n">
-        <v>1.11864406779661</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="G49" t="n">
-        <v>2.389830508474576</v>
+        <v>2.274193548387097</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="I49" t="n">
-        <v>0.1186440677966102</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="J49" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>2.491525423728814</v>
+        <v>2.370967741935484</v>
       </c>
       <c r="M49" t="n">
-        <v>0.1355932203389831</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="N49" t="n">
-        <v>0.2542372881355932</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="O49" t="n">
-        <v>1.220338983050848</v>
+        <v>1.161290322580645</v>
       </c>
       <c r="P49" t="n">
-        <v>0.2711864406779661</v>
+        <v>0.2580645161290323</v>
       </c>
     </row>
     <row r="50">
@@ -3218,40 +3218,40 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1.127118644067797</v>
+        <v>1.148760330578512</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6101694915254238</v>
+        <v>0.6115702479338843</v>
       </c>
       <c r="G50" t="n">
-        <v>1.61864406779661</v>
+        <v>1.628099173553719</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1694915254237288</v>
+        <v>0.1735537190082645</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.05785123966942149</v>
       </c>
       <c r="J50" t="n">
-        <v>0.06779661016949153</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="K50" t="n">
-        <v>0.008474576271186441</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="L50" t="n">
-        <v>2.11864406779661</v>
+        <v>2.132231404958678</v>
       </c>
       <c r="M50" t="n">
-        <v>0.1610169491525424</v>
+        <v>0.1652892561983471</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1779661016949153</v>
+        <v>0.1900826446280992</v>
       </c>
       <c r="O50" t="n">
-        <v>0.8220338983050848</v>
+        <v>0.8264462809917356</v>
       </c>
       <c r="P50" t="n">
-        <v>0.2542372881355932</v>
+        <v>0.2644628099173554</v>
       </c>
     </row>
     <row r="51">
@@ -3274,40 +3274,40 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.7153846153846154</v>
+        <v>0.7293233082706767</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4923076923076923</v>
+        <v>0.5037593984962406</v>
       </c>
       <c r="G51" t="n">
-        <v>3.023076923076923</v>
+        <v>3.015037593984963</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.1879699248120301</v>
       </c>
       <c r="J51" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="K51" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.01503759398496241</v>
       </c>
       <c r="L51" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9774436090225563</v>
       </c>
       <c r="M51" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.04511278195488722</v>
       </c>
       <c r="N51" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="O51" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="P51" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.1203007518796992</v>
       </c>
     </row>
     <row r="52">
@@ -3442,37 +3442,37 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.1685393258426966</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.03370786516853932</v>
+        <v>-0.04347826086956522</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4606741573033708</v>
+        <v>0.4673913043478261</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1123595505617977</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0898876404494382</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8089887640449438</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="K54" t="n">
-        <v>0.05617977528089887</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="L54" t="n">
-        <v>0.4044943820224719</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="M54" t="n">
-        <v>0.03370786516853932</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0.07865168539325842</v>
+        <v>0.07608695652173914</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3498,40 +3498,40 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.3816793893129771</v>
+        <v>0.4029850746268657</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06106870229007633</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="G55" t="n">
-        <v>1.770992366412214</v>
+        <v>1.888059701492537</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3053435114503817</v>
+        <v>0.3134328358208955</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1145038167938931</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="J55" t="n">
-        <v>0.06106870229007633</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3816793893129771</v>
+        <v>0.3955223880597015</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0.1603053435114504</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="P55" t="n">
-        <v>0.1068702290076336</v>
+        <v>0.1268656716417911</v>
       </c>
     </row>
     <row r="56">
@@ -3610,40 +3610,40 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6515151515151515</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="G57" t="n">
-        <v>3.777777777777778</v>
+        <v>3.848484848484849</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="I57" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="J57" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1.158730158730159</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="N57" t="n">
-        <v>0.03174603174603174</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="O57" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3181818181818182</v>
       </c>
       <c r="P57" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="58">
@@ -3666,40 +3666,40 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2.8</v>
+        <v>2.846153846153846</v>
       </c>
       <c r="F58" t="n">
-        <v>1.573333333333333</v>
+        <v>1.602564102564103</v>
       </c>
       <c r="G58" t="n">
-        <v>3.706666666666667</v>
+        <v>3.743589743589744</v>
       </c>
       <c r="H58" t="n">
-        <v>0.36</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="I58" t="n">
-        <v>0.28</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="J58" t="n">
-        <v>3.173333333333333</v>
+        <v>3.269230769230769</v>
       </c>
       <c r="K58" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L58" t="n">
-        <v>5.986666666666666</v>
+        <v>6.089743589743589</v>
       </c>
       <c r="M58" t="n">
-        <v>0.4133333333333333</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="N58" t="n">
-        <v>0.3466666666666667</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="O58" t="n">
-        <v>2.226666666666667</v>
+        <v>2.269230769230769</v>
       </c>
       <c r="P58" t="n">
-        <v>0.2933333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="59">
@@ -3722,40 +3722,40 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.106666666666666</v>
+        <v>2.084967320261438</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9133333333333333</v>
+        <v>0.9150326797385621</v>
       </c>
       <c r="G59" t="n">
-        <v>2.42</v>
+        <v>2.372549019607843</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1933333333333333</v>
+        <v>0.1895424836601307</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="J59" t="n">
-        <v>2.84</v>
+        <v>2.797385620915033</v>
       </c>
       <c r="K59" t="n">
-        <v>0.1533333333333333</v>
+        <v>0.1503267973856209</v>
       </c>
       <c r="L59" t="n">
-        <v>4.793333333333333</v>
+        <v>4.73202614379085</v>
       </c>
       <c r="M59" t="n">
-        <v>0.3866666666666667</v>
+        <v>0.3790849673202614</v>
       </c>
       <c r="N59" t="n">
-        <v>0.46</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="O59" t="n">
-        <v>1.82</v>
+        <v>1.803921568627451</v>
       </c>
       <c r="P59" t="n">
-        <v>0.1866666666666667</v>
+        <v>0.1830065359477124</v>
       </c>
     </row>
     <row r="60">
@@ -3778,40 +3778,40 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.136986301369863</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0410958904109589</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1917808219178082</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="H60" t="n">
-        <v>0.03424657534246575</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="I60" t="n">
-        <v>0.00684931506849315</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2397260273972603</v>
+        <v>0.2348993288590604</v>
       </c>
       <c r="K60" t="n">
-        <v>0.03424657534246575</v>
+        <v>0.03355704697986577</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3219178082191781</v>
+        <v>0.3154362416107382</v>
       </c>
       <c r="M60" t="n">
-        <v>0.02054794520547945</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="N60" t="n">
-        <v>0.00684931506849315</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="O60" t="n">
-        <v>0.1232876712328767</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="P60" t="n">
-        <v>0.00684931506849315</v>
+        <v>0.006711409395973154</v>
       </c>
     </row>
     <row r="61">
@@ -3946,40 +3946,40 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1.654450261780105</v>
+        <v>1.675257731958763</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7643979057591623</v>
+        <v>0.7783505154639175</v>
       </c>
       <c r="G63" t="n">
-        <v>2.575916230366492</v>
+        <v>2.587628865979382</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2146596858638743</v>
+        <v>0.2164948453608248</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2827225130890053</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="J63" t="n">
-        <v>2.026178010471204</v>
+        <v>2.051546391752577</v>
       </c>
       <c r="K63" t="n">
-        <v>0.1413612565445026</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="L63" t="n">
-        <v>3.518324607329843</v>
+        <v>3.572164948453608</v>
       </c>
       <c r="M63" t="n">
-        <v>0.3141361256544503</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="N63" t="n">
-        <v>0.2198952879581152</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="O63" t="n">
-        <v>1.230366492146597</v>
+        <v>1.252577319587629</v>
       </c>
       <c r="P63" t="n">
-        <v>0.1413612565445026</v>
+        <v>0.1391752577319588</v>
       </c>
     </row>
     <row r="64">
@@ -4058,40 +4058,40 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.525423728813559</v>
+        <v>3.548387096774194</v>
       </c>
       <c r="F65" t="n">
-        <v>1.694915254237288</v>
+        <v>1.725806451612903</v>
       </c>
       <c r="G65" t="n">
-        <v>2.508474576271186</v>
+        <v>2.516129032258065</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5423728813559322</v>
+        <v>0.532258064516129</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2203389830508475</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="J65" t="n">
-        <v>0.06779661016949153</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>8.084745762711865</v>
+        <v>8.209677419354838</v>
       </c>
       <c r="M65" t="n">
-        <v>0.864406779661017</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="N65" t="n">
-        <v>0.423728813559322</v>
+        <v>0.4032258064516129</v>
       </c>
       <c r="O65" t="n">
-        <v>2.88135593220339</v>
+        <v>2.935483870967742</v>
       </c>
       <c r="P65" t="n">
-        <v>0.423728813559322</v>
+        <v>0.4032258064516129</v>
       </c>
     </row>
     <row r="66">
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.1951219512195122</v>
+        <v>-0.2117647058823529</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -4297,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.902439024390244</v>
+        <v>3.882352941176471</v>
       </c>
       <c r="K69" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L69" t="n">
         <v>0</v>
@@ -4338,19 +4338,19 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2.589285714285714</v>
+        <v>2.593220338983051</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>2.542372881355932</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4464285714285715</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -4359,19 +4359,19 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>6.982142857142857</v>
+        <v>7.050847457627119</v>
       </c>
       <c r="M70" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="N70" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.7627118644067796</v>
       </c>
       <c r="O70" t="n">
-        <v>2.125</v>
+        <v>2.135593220338983</v>
       </c>
       <c r="P70" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.1864406779661017</v>
       </c>
     </row>
     <row r="71">
@@ -4450,40 +4450,40 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1825396825396825</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="G72" t="n">
-        <v>1.333333333333333</v>
+        <v>1.37984496124031</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="I72" t="n">
-        <v>0.06349206349206349</v>
+        <v>0.06201550387596899</v>
       </c>
       <c r="J72" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>1.198412698412698</v>
+        <v>1.209302325581395</v>
       </c>
       <c r="M72" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05426356589147287</v>
       </c>
       <c r="N72" t="n">
-        <v>0.126984126984127</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="O72" t="n">
-        <v>0.373015873015873</v>
+        <v>0.3798449612403101</v>
       </c>
       <c r="P72" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.06976744186046512</v>
       </c>
     </row>
     <row r="73">
@@ -4674,40 +4674,40 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="H76" t="n">
-        <v>0.1355932203389831</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="I76" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="J76" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>1.067796610169492</v>
+        <v>1.048387096774194</v>
       </c>
       <c r="M76" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="N76" t="n">
-        <v>0.06779661016949153</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="O76" t="n">
-        <v>0.288135593220339</v>
+        <v>0.2741935483870968</v>
       </c>
       <c r="P76" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="77">
@@ -4730,40 +4730,40 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.878787878787879</v>
+        <v>1.882352941176471</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="G77" t="n">
-        <v>2.96969696969697</v>
+        <v>2.950980392156863</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.4019607843137255</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1313131313131313</v>
+        <v>0.1372549019607843</v>
       </c>
       <c r="J77" t="n">
-        <v>5.343434343434343</v>
+        <v>5.382352941176471</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3737373737373738</v>
+        <v>0.4019607843137255</v>
       </c>
       <c r="L77" t="n">
-        <v>6.141414141414141</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="M77" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5196078431372549</v>
       </c>
       <c r="N77" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="O77" t="n">
-        <v>1.676767676767677</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="P77" t="n">
-        <v>0.0707070707070707</v>
+        <v>0.07843137254901961</v>
       </c>
     </row>
     <row r="78">
@@ -4786,19 +4786,19 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="H78" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="I78" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -4898,40 +4898,40 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.8468468468468469</v>
+        <v>0.8245614035087719</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1981981981981982</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="G80" t="n">
-        <v>0.6846846846846847</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="I80" t="n">
-        <v>0.04504504504504504</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="J80" t="n">
-        <v>4.72072072072072</v>
+        <v>4.868421052631579</v>
       </c>
       <c r="K80" t="n">
-        <v>0.3063063063063063</v>
+        <v>0.3070175438596491</v>
       </c>
       <c r="L80" t="n">
-        <v>1.63963963963964</v>
+        <v>1.596491228070176</v>
       </c>
       <c r="M80" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1261261261261261</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="O80" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="P80" t="n">
-        <v>0.0990990990990991</v>
+        <v>0.09649122807017543</v>
       </c>
     </row>
     <row r="81">
@@ -4954,40 +4954,40 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2.072289156626506</v>
+        <v>2.13953488372093</v>
       </c>
       <c r="F81" t="n">
-        <v>1.397590361445783</v>
+        <v>1.453488372093023</v>
       </c>
       <c r="G81" t="n">
-        <v>3.662650602409638</v>
+        <v>3.662790697674418</v>
       </c>
       <c r="H81" t="n">
-        <v>0.2771084337349398</v>
+        <v>0.2674418604651163</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2771084337349398</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="J81" t="n">
-        <v>0.108433734939759</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01204819277108434</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="L81" t="n">
-        <v>2.698795180722891</v>
+        <v>2.720930232558139</v>
       </c>
       <c r="M81" t="n">
-        <v>0.1686746987951807</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2168674698795181</v>
+        <v>0.2209302325581395</v>
       </c>
       <c r="O81" t="n">
-        <v>1.180722891566265</v>
+        <v>1.209302325581395</v>
       </c>
       <c r="P81" t="n">
-        <v>0.6144578313253012</v>
+        <v>0.6511627906976745</v>
       </c>
     </row>
     <row r="82">
@@ -5010,40 +5010,40 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.7474747474747475</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2525252525252525</v>
+        <v>0.2843137254901961</v>
       </c>
       <c r="G82" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7549019607843137</v>
       </c>
       <c r="H82" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="I82" t="n">
-        <v>0.0505050505050505</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="J82" t="n">
-        <v>0.101010101010101</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="L82" t="n">
-        <v>1.97979797979798</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="M82" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="N82" t="n">
-        <v>0.202020202020202</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="O82" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="P82" t="n">
-        <v>0.0707070707070707</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="83">
@@ -5066,19 +5066,19 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.08108108108108109</v>
+        <v>-0.07792207792207792</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8243243243243243</v>
+        <v>0.7922077922077922</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="I83" t="n">
-        <v>0.02702702702702703</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -5087,10 +5087,10 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06756756756756757</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01351351351351351</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5099,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>0.01351351351351351</v>
+        <v>0.01298701298701299</v>
       </c>
     </row>
     <row r="84">
@@ -5178,40 +5178,40 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1.098901098901099</v>
+        <v>1.085106382978723</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2967032967032967</v>
+        <v>0.2872340425531915</v>
       </c>
       <c r="G85" t="n">
-        <v>2.065934065934066</v>
+        <v>2.074468085106383</v>
       </c>
       <c r="H85" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="I85" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1648351648351648</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01098901098901099</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="L85" t="n">
-        <v>2.164835164835165</v>
+        <v>2.117021276595745</v>
       </c>
       <c r="M85" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="N85" t="n">
-        <v>0.2527472527472527</v>
+        <v>0.2446808510638298</v>
       </c>
       <c r="O85" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="P85" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.2340425531914894</v>
       </c>
     </row>
     <row r="86">
@@ -5234,40 +5234,40 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3.661016949152542</v>
+        <v>3.483870967741935</v>
       </c>
       <c r="F86" t="n">
-        <v>2.067796610169491</v>
+        <v>1.967741935483871</v>
       </c>
       <c r="G86" t="n">
-        <v>3.135593220338983</v>
+        <v>2.983870967741935</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="I86" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="J86" t="n">
-        <v>6.508474576271187</v>
+        <v>6.193548387096774</v>
       </c>
       <c r="K86" t="n">
-        <v>0.4576271186440678</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="L86" t="n">
-        <v>7.491525423728813</v>
+        <v>7.129032258064516</v>
       </c>
       <c r="M86" t="n">
-        <v>0.5423728813559322</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="N86" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.4677419354838709</v>
       </c>
       <c r="O86" t="n">
-        <v>3.169491525423729</v>
+        <v>3.016129032258065</v>
       </c>
       <c r="P86" t="n">
-        <v>0.3389830508474576</v>
+        <v>0.3225806451612903</v>
       </c>
     </row>
     <row r="87">
@@ -5402,19 +5402,19 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="G89" t="n">
-        <v>1.444444444444444</v>
+        <v>1.46969696969697</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2698412698412698</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="I89" t="n">
-        <v>0.126984126984127</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -5423,19 +5423,19 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>1.380952380952381</v>
+        <v>1.439393939393939</v>
       </c>
       <c r="M89" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="N89" t="n">
-        <v>0.126984126984127</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="O89" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5303030303030303</v>
       </c>
       <c r="P89" t="n">
-        <v>0.3015873015873016</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="90">
@@ -5514,25 +5514,25 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.01492537313432836</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.04477611940298507</v>
+        <v>-0.04285714285714286</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1492537313432836</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.01492537313432836</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="J91" t="n">
-        <v>1.104477611940299</v>
+        <v>1.057142857142857</v>
       </c>
       <c r="K91" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.9</v>
+        <v>2.886178861788618</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.959349593495935</v>
       </c>
       <c r="G92" t="n">
-        <v>2.841666666666667</v>
+        <v>2.804878048780488</v>
       </c>
       <c r="H92" t="n">
-        <v>0.45</v>
+        <v>0.4390243902439024</v>
       </c>
       <c r="I92" t="n">
-        <v>0.225</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="J92" t="n">
-        <v>2.675</v>
+        <v>2.699186991869919</v>
       </c>
       <c r="K92" t="n">
-        <v>0.2583333333333334</v>
+        <v>0.2764227642276423</v>
       </c>
       <c r="L92" t="n">
-        <v>6.775</v>
+        <v>6.715447154471545</v>
       </c>
       <c r="M92" t="n">
-        <v>0.65</v>
+        <v>0.6422764227642277</v>
       </c>
       <c r="N92" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5691056910569106</v>
       </c>
       <c r="O92" t="n">
-        <v>2.425</v>
+        <v>2.414634146341463</v>
       </c>
       <c r="P92" t="n">
-        <v>0.25</v>
+        <v>0.2520325203252032</v>
       </c>
     </row>
     <row r="93">
@@ -5794,40 +5794,40 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1.207692307692308</v>
+        <v>1.218045112781955</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G96" t="n">
-        <v>1.923076923076923</v>
+        <v>1.969924812030075</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="J96" t="n">
-        <v>3.715384615384616</v>
+        <v>3.781954887218045</v>
       </c>
       <c r="K96" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.1804511278195489</v>
       </c>
       <c r="L96" t="n">
-        <v>4</v>
+        <v>4.045112781954887</v>
       </c>
       <c r="M96" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="O96" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9699248120300752</v>
       </c>
       <c r="P96" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.1203007518796992</v>
       </c>
     </row>
     <row r="97">
@@ -5850,40 +5850,40 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.7518796992481203</v>
+        <v>0.7426470588235294</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2180451127819549</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="G97" t="n">
-        <v>0.7819548872180451</v>
+        <v>0.7720588235294118</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1353383458646616</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="I97" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J97" t="n">
-        <v>1.37593984962406</v>
+        <v>1.345588235294118</v>
       </c>
       <c r="K97" t="n">
-        <v>0.09022556390977443</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L97" t="n">
-        <v>1.669172932330827</v>
+        <v>1.632352941176471</v>
       </c>
       <c r="M97" t="n">
-        <v>0.1729323308270677</v>
+        <v>0.1691176470588235</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1353383458646616</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="O97" t="n">
-        <v>0.6090225563909775</v>
+        <v>0.5955882352941176</v>
       </c>
       <c r="P97" t="n">
-        <v>0.09022556390977443</v>
+        <v>0.08823529411764706</v>
       </c>
     </row>
     <row r="98">
@@ -5906,40 +5906,40 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>2.825396825396826</v>
+        <v>2.848484848484849</v>
       </c>
       <c r="F98" t="n">
-        <v>1.142857142857143</v>
+        <v>1.196969696969697</v>
       </c>
       <c r="G98" t="n">
-        <v>4.349206349206349</v>
+        <v>4.318181818181818</v>
       </c>
       <c r="H98" t="n">
-        <v>0.1587301587301587</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="J98" t="n">
-        <v>6.079365079365079</v>
+        <v>6.121212121212121</v>
       </c>
       <c r="K98" t="n">
-        <v>0.1587301587301587</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L98" t="n">
-        <v>6.587301587301587</v>
+        <v>6.621212121212121</v>
       </c>
       <c r="M98" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="N98" t="n">
-        <v>0.6984126984126984</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="O98" t="n">
-        <v>2.333333333333333</v>
+        <v>2.363636363636364</v>
       </c>
       <c r="P98" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.3484848484848485</v>
       </c>
     </row>
     <row r="99">
@@ -5962,40 +5962,40 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3.1</v>
+        <v>3.018867924528302</v>
       </c>
       <c r="F99" t="n">
-        <v>1.02</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="G99" t="n">
-        <v>2.88</v>
+        <v>2.849056603773585</v>
       </c>
       <c r="H99" t="n">
-        <v>0.36</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="J99" t="n">
-        <v>5.94</v>
+        <v>5.943396226415095</v>
       </c>
       <c r="K99" t="n">
-        <v>0.46</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="L99" t="n">
-        <v>8.140000000000001</v>
+        <v>8.113207547169811</v>
       </c>
       <c r="M99" t="n">
-        <v>0.9</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="N99" t="n">
-        <v>0.36</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="O99" t="n">
-        <v>2.72</v>
+        <v>2.660377358490566</v>
       </c>
       <c r="P99" t="n">
-        <v>0.28</v>
+        <v>0.2641509433962264</v>
       </c>
     </row>
     <row r="100">
@@ -6018,19 +6018,19 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.3559322033898305</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="G100" t="n">
-        <v>1.694915254237288</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1694915254237288</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="I100" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -6039,19 +6039,19 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="M100" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="N100" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="O100" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="P100" t="n">
-        <v>0.1186440677966102</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="101">
@@ -6074,40 +6074,40 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1.118918918918919</v>
+        <v>1.101063829787234</v>
       </c>
       <c r="F101" t="n">
-        <v>0.572972972972973</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="G101" t="n">
-        <v>1.47027027027027</v>
+        <v>1.446808510638298</v>
       </c>
       <c r="H101" t="n">
-        <v>0.1621621621621622</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="I101" t="n">
-        <v>0.07567567567567568</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="J101" t="n">
-        <v>3.281081081081081</v>
+        <v>3.340425531914894</v>
       </c>
       <c r="K101" t="n">
-        <v>0.1891891891891892</v>
+        <v>0.1861702127659574</v>
       </c>
       <c r="L101" t="n">
-        <v>1.832432432432432</v>
+        <v>1.803191489361702</v>
       </c>
       <c r="M101" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="N101" t="n">
-        <v>0.08648648648648649</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="O101" t="n">
-        <v>0.8486486486486486</v>
+        <v>0.8351063829787234</v>
       </c>
       <c r="P101" t="n">
-        <v>0.1945945945945946</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="102">
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.2142857142857143</v>
+        <v>-0.2248062015503876</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -6145,10 +6145,10 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>3.166666666666667</v>
+        <v>3.155038759689922</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -6186,40 +6186,40 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3.779661016949153</v>
+        <v>3.67741935483871</v>
       </c>
       <c r="F103" t="n">
-        <v>2.508474576271186</v>
+        <v>2.435483870967742</v>
       </c>
       <c r="G103" t="n">
-        <v>3.898305084745763</v>
+        <v>3.854838709677419</v>
       </c>
       <c r="H103" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="J103" t="n">
-        <v>4.288135593220339</v>
+        <v>4.32258064516129</v>
       </c>
       <c r="K103" t="n">
-        <v>0.1186440677966102</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L103" t="n">
-        <v>8.661016949152541</v>
+        <v>8.548387096774194</v>
       </c>
       <c r="M103" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.5</v>
       </c>
       <c r="N103" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="O103" t="n">
-        <v>3.135593220338983</v>
+        <v>3.048387096774194</v>
       </c>
       <c r="P103" t="n">
-        <v>0.4576271186440678</v>
+        <v>0.4516129032258064</v>
       </c>
     </row>
     <row r="104">
@@ -6298,40 +6298,40 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.07407407407407407</v>
+        <v>-0.07142857142857142</v>
       </c>
       <c r="G105" t="n">
-        <v>0.8271604938271605</v>
+        <v>0.7976190476190477</v>
       </c>
       <c r="H105" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I105" t="n">
-        <v>0.04938271604938271</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J105" t="n">
-        <v>2.037037037037037</v>
+        <v>1.976190476190476</v>
       </c>
       <c r="K105" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="L105" t="n">
-        <v>1.641975308641975</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="M105" t="n">
-        <v>0.2345679012345679</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1358024691358025</v>
+        <v>0.130952380952381</v>
       </c>
       <c r="O105" t="n">
-        <v>0.4197530864197531</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="P105" t="n">
-        <v>0.08641975308641975</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="106">
@@ -6354,19 +6354,19 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4.851351351351352</v>
+        <v>4.662337662337662</v>
       </c>
       <c r="F106" t="n">
-        <v>3.256756756756757</v>
+        <v>3.12987012987013</v>
       </c>
       <c r="G106" t="n">
-        <v>2.986486486486486</v>
+        <v>2.87012987012987</v>
       </c>
       <c r="H106" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.4675324675324675</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -6375,19 +6375,19 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>8.864864864864865</v>
+        <v>8.519480519480519</v>
       </c>
       <c r="M106" t="n">
-        <v>0.527027027027027</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="N106" t="n">
-        <v>0.581081081081081</v>
+        <v>0.5584415584415584</v>
       </c>
       <c r="O106" t="n">
-        <v>4.27027027027027</v>
+        <v>4.103896103896104</v>
       </c>
       <c r="P106" t="n">
-        <v>0.472972972972973</v>
+        <v>0.4545454545454545</v>
       </c>
     </row>
     <row r="107">
@@ -6410,40 +6410,40 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.2771084337349398</v>
+        <v>0.313953488372093</v>
       </c>
       <c r="F107" t="n">
-        <v>0.108433734939759</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="G107" t="n">
-        <v>0.6626506024096386</v>
+        <v>0.7325581395348837</v>
       </c>
       <c r="H107" t="n">
-        <v>0.07228915662650602</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="I107" t="n">
-        <v>0.02409638554216868</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06024096385542169</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="K107" t="n">
-        <v>0.04819277108433735</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="L107" t="n">
-        <v>0.4578313253012048</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01204819277108434</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="O107" t="n">
-        <v>0.2048192771084337</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="P107" t="n">
-        <v>0.04819277108433735</v>
+        <v>0.05813953488372093</v>
       </c>
     </row>
     <row r="108">
@@ -6522,40 +6522,40 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2.193548387096774</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.9692307692307692</v>
       </c>
       <c r="G109" t="n">
-        <v>2.064516129032258</v>
+        <v>2.230769230769231</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1129032258064516</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="J109" t="n">
-        <v>1.258064516129032</v>
+        <v>1.2</v>
       </c>
       <c r="K109" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L109" t="n">
-        <v>5.467741935483871</v>
+        <v>5.723076923076923</v>
       </c>
       <c r="M109" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.6</v>
       </c>
       <c r="N109" t="n">
-        <v>0.4354838709677419</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="O109" t="n">
-        <v>1.758064516129032</v>
+        <v>1.861538461538462</v>
       </c>
       <c r="P109" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="110">
@@ -6637,7 +6637,7 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.234375</v>
+        <v>-0.2442748091603053</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -6649,10 +6649,10 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>4.109375</v>
+        <v>4.198473282442748</v>
       </c>
       <c r="K111" t="n">
-        <v>0.234375</v>
+        <v>0.2442748091603053</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -6693,13 +6693,13 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.01754385964912281</v>
+        <v>-0.01666666666666667</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07017543859649122</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -6802,40 +6802,40 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1.101694915254237</v>
+        <v>1.080645161290323</v>
       </c>
       <c r="F114" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="G114" t="n">
-        <v>2.491525423728814</v>
+        <v>2.548387096774194</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="I114" t="n">
-        <v>0.2372881355932203</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="J114" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L114" t="n">
-        <v>1.525423728813559</v>
+        <v>1.516129032258065</v>
       </c>
       <c r="M114" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1355932203389831</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="O114" t="n">
-        <v>0.6271186440677966</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="P114" t="n">
-        <v>0.2372881355932203</v>
+        <v>0.2258064516129032</v>
       </c>
     </row>
     <row r="115">
@@ -6858,40 +6858,40 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2.153225806451613</v>
+        <v>2.165354330708662</v>
       </c>
       <c r="F115" t="n">
-        <v>1.629032258064516</v>
+        <v>1.637795275590551</v>
       </c>
       <c r="G115" t="n">
-        <v>2.741935483870968</v>
+        <v>2.771653543307087</v>
       </c>
       <c r="H115" t="n">
-        <v>0.2016129032258064</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="I115" t="n">
-        <v>0.2096774193548387</v>
+        <v>0.2204724409448819</v>
       </c>
       <c r="J115" t="n">
-        <v>0.08870967741935484</v>
+        <v>0.1023622047244094</v>
       </c>
       <c r="K115" t="n">
-        <v>0.02419354838709677</v>
+        <v>0.03149606299212598</v>
       </c>
       <c r="L115" t="n">
-        <v>2.548387096774194</v>
+        <v>2.559055118110236</v>
       </c>
       <c r="M115" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1693548387096774</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="O115" t="n">
-        <v>1.42741935483871</v>
+        <v>1.425196850393701</v>
       </c>
       <c r="P115" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.5196850393700787</v>
       </c>
     </row>
     <row r="116">
@@ -6914,40 +6914,40 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3.203389830508474</v>
+        <v>3.17741935483871</v>
       </c>
       <c r="F116" t="n">
-        <v>1.271186440677966</v>
+        <v>1.274193548387097</v>
       </c>
       <c r="G116" t="n">
-        <v>4.271186440677966</v>
+        <v>4.225806451612903</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5254237288135594</v>
+        <v>0.5</v>
       </c>
       <c r="I116" t="n">
-        <v>0.3389830508474576</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="J116" t="n">
-        <v>5.254237288135593</v>
+        <v>5.225806451612903</v>
       </c>
       <c r="K116" t="n">
-        <v>0.3559322033898305</v>
+        <v>0.3387096774193548</v>
       </c>
       <c r="L116" t="n">
-        <v>6.830508474576271</v>
+        <v>6.870967741935484</v>
       </c>
       <c r="M116" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="N116" t="n">
-        <v>0.6779661016949152</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="O116" t="n">
-        <v>2.457627118644068</v>
+        <v>2.467741935483871</v>
       </c>
       <c r="P116" t="n">
-        <v>0.4067796610169492</v>
+        <v>0.3870967741935484</v>
       </c>
     </row>
     <row r="117">
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0.3050847457627119</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
@@ -7082,40 +7082,40 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1.91044776119403</v>
+        <v>2.185714285714285</v>
       </c>
       <c r="F119" t="n">
-        <v>0.6567164179104478</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G119" t="n">
-        <v>1.761194029850746</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3134328358208955</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1641791044776119</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02985074626865672</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>4.656716417910448</v>
+        <v>5.014285714285714</v>
       </c>
       <c r="M119" t="n">
-        <v>0.582089552238806</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3582089552238806</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="O119" t="n">
-        <v>1.582089552238806</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="P119" t="n">
-        <v>0.1641791044776119</v>
+        <v>0.1714285714285714</v>
       </c>
     </row>
     <row r="120">
@@ -7250,40 +7250,40 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>2.37007874015748</v>
+        <v>2.361538461538462</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8031496062992126</v>
+        <v>0.8</v>
       </c>
       <c r="G122" t="n">
-        <v>2.850393700787401</v>
+        <v>2.915384615384615</v>
       </c>
       <c r="H122" t="n">
-        <v>0.2755905511811024</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1732283464566929</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="J122" t="n">
-        <v>4.244094488188976</v>
+        <v>4.16923076923077</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3385826771653543</v>
+        <v>0.3307692307692308</v>
       </c>
       <c r="L122" t="n">
-        <v>5.826771653543307</v>
+        <v>5.823076923076923</v>
       </c>
       <c r="M122" t="n">
-        <v>0.5196850393700787</v>
+        <v>0.5153846153846153</v>
       </c>
       <c r="N122" t="n">
-        <v>0.4330708661417323</v>
+        <v>0.4384615384615385</v>
       </c>
       <c r="O122" t="n">
-        <v>1.952755905511811</v>
+        <v>1.946153846153846</v>
       </c>
       <c r="P122" t="n">
-        <v>0.2440944881889764</v>
+        <v>0.2384615384615385</v>
       </c>
     </row>
     <row r="123">
@@ -7362,40 +7362,40 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2.135593220338983</v>
+        <v>2.190082644628099</v>
       </c>
       <c r="F124" t="n">
-        <v>1.127118644067797</v>
+        <v>1.165289256198347</v>
       </c>
       <c r="G124" t="n">
-        <v>2.127118644067797</v>
+        <v>2.231404958677686</v>
       </c>
       <c r="H124" t="n">
-        <v>0.2033898305084746</v>
+        <v>0.2066115702479339</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.1570247933884298</v>
       </c>
       <c r="J124" t="n">
-        <v>4.042372881355933</v>
+        <v>4.132231404958677</v>
       </c>
       <c r="K124" t="n">
-        <v>0.1779661016949153</v>
+        <v>0.1900826446280992</v>
       </c>
       <c r="L124" t="n">
-        <v>4.330508474576271</v>
+        <v>4.404958677685951</v>
       </c>
       <c r="M124" t="n">
-        <v>0.3474576271186441</v>
+        <v>0.3471074380165289</v>
       </c>
       <c r="N124" t="n">
-        <v>0.2796610169491525</v>
+        <v>0.2809917355371901</v>
       </c>
       <c r="O124" t="n">
-        <v>1.796610169491526</v>
+        <v>1.84297520661157</v>
       </c>
       <c r="P124" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.1900826446280992</v>
       </c>
     </row>
     <row r="125">
@@ -7418,19 +7418,19 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.3582089552238806</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1791044776119403</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="G125" t="n">
-        <v>1.223880597014925</v>
+        <v>1.214285714285714</v>
       </c>
       <c r="H125" t="n">
-        <v>0.1641791044776119</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="I125" t="n">
-        <v>0.07462686567164178</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -7439,19 +7439,19 @@
         <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2686567164179104</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="M125" t="n">
-        <v>0.01492537313432836</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>0.1343283582089552</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="P125" t="n">
-        <v>0.1492537313432836</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="126">
@@ -7474,40 +7474,40 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4.426229508196721</v>
+        <v>4.432</v>
       </c>
       <c r="F126" t="n">
-        <v>2.286885245901639</v>
+        <v>2.264</v>
       </c>
       <c r="G126" t="n">
-        <v>2.819672131147541</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
-        <v>0.6967213114754098</v>
+        <v>0.704</v>
       </c>
       <c r="I126" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.208</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="L126" t="n">
-        <v>9.114754098360656</v>
+        <v>9.192</v>
       </c>
       <c r="M126" t="n">
-        <v>0.6639344262295082</v>
+        <v>0.68</v>
       </c>
       <c r="N126" t="n">
-        <v>0.7786885245901639</v>
+        <v>0.776</v>
       </c>
       <c r="O126" t="n">
-        <v>3.819672131147541</v>
+        <v>3.84</v>
       </c>
       <c r="P126" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="127">
@@ -7530,19 +7530,19 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.04929577464788732</v>
+        <v>0.04827586206896552</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.02112676056338028</v>
+        <v>-0.02068965517241379</v>
       </c>
       <c r="G127" t="n">
-        <v>0.4295774647887324</v>
+        <v>0.4275862068965517</v>
       </c>
       <c r="H127" t="n">
-        <v>0.06338028169014084</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="I127" t="n">
-        <v>0.01408450704225352</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -7551,19 +7551,19 @@
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06338028169014084</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="M127" t="n">
-        <v>0.007042253521126761</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="N127" t="n">
         <v>0</v>
       </c>
       <c r="O127" t="n">
-        <v>0.01408450704225352</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="P127" t="n">
-        <v>0.02112676056338028</v>
+        <v>0.02068965517241379</v>
       </c>
     </row>
     <row r="128">
@@ -7586,40 +7586,40 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.5535714285714286</v>
+        <v>0.5565217391304348</v>
       </c>
       <c r="F128" t="n">
-        <v>0.2767857142857143</v>
+        <v>0.2869565217391304</v>
       </c>
       <c r="G128" t="n">
-        <v>1.017857142857143</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="I128" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.1565217391304348</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="K128" t="n">
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>0.6696428571428571</v>
+        <v>0.6869565217391305</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0625</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="N128" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="O128" t="n">
-        <v>0.2946428571428572</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="P128" t="n">
-        <v>0.09821428571428571</v>
+        <v>0.09565217391304348</v>
       </c>
     </row>
     <row r="129">
@@ -7698,19 +7698,19 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="G130" t="n">
-        <v>1.063492063492063</v>
+        <v>1.015151515151515</v>
       </c>
       <c r="H130" t="n">
-        <v>0.06349206349206349</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="I130" t="n">
-        <v>0.06349206349206349</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="J130" t="n">
         <v>0</v>
@@ -7719,19 +7719,19 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>2.714285714285714</v>
+        <v>2.590909090909091</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="N130" t="n">
-        <v>0.2698412698412698</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="O130" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="P130" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="131">
@@ -7810,40 +7810,40 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3.278195488721805</v>
+        <v>3.286764705882353</v>
       </c>
       <c r="F132" t="n">
-        <v>1.947368421052632</v>
+        <v>1.948529411764706</v>
       </c>
       <c r="G132" t="n">
-        <v>3.684210526315789</v>
+        <v>3.691176470588236</v>
       </c>
       <c r="H132" t="n">
-        <v>0.2255639097744361</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="I132" t="n">
-        <v>0.2406015037593985</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="J132" t="n">
-        <v>5.150375939849624</v>
+        <v>5.154411764705882</v>
       </c>
       <c r="K132" t="n">
-        <v>0.2781954887218045</v>
+        <v>0.2720588235294117</v>
       </c>
       <c r="L132" t="n">
-        <v>6.526315789473684</v>
+        <v>6.580882352941177</v>
       </c>
       <c r="M132" t="n">
-        <v>0.481203007518797</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3458646616541353</v>
+        <v>0.3602941176470588</v>
       </c>
       <c r="O132" t="n">
-        <v>2.62406015037594</v>
+        <v>2.632352941176471</v>
       </c>
       <c r="P132" t="n">
-        <v>0.4135338345864661</v>
+        <v>0.4191176470588235</v>
       </c>
     </row>
     <row r="133">
@@ -7978,40 +7978,40 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>1.983870967741935</v>
       </c>
       <c r="F135" t="n">
-        <v>1.440677966101695</v>
+        <v>1.403225806451613</v>
       </c>
       <c r="G135" t="n">
-        <v>2.694915254237288</v>
+        <v>2.709677419354839</v>
       </c>
       <c r="H135" t="n">
-        <v>0.1694915254237288</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="I135" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>3.288135593220339</v>
+        <v>3.306451612903226</v>
       </c>
       <c r="M135" t="n">
-        <v>0.2203389830508475</v>
+        <v>0.2419354838709677</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1694915254237288</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="O135" t="n">
-        <v>1.406779661016949</v>
+        <v>1.419354838709677</v>
       </c>
       <c r="P135" t="n">
-        <v>0.4406779661016949</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="136">
@@ -8034,40 +8034,40 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1.694915254237288</v>
+        <v>1.612903225806452</v>
       </c>
       <c r="F136" t="n">
-        <v>1.033898305084746</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="G136" t="n">
-        <v>2.898305084745763</v>
+        <v>2.758064516129032</v>
       </c>
       <c r="H136" t="n">
-        <v>0.2203389830508475</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="I136" t="n">
-        <v>0.1694915254237288</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0847457627118644</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="K136" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="L136" t="n">
-        <v>2.440677966101695</v>
+        <v>2.32258064516129</v>
       </c>
       <c r="M136" t="n">
-        <v>0.2711864406779661</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1525423728813559</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="O136" t="n">
-        <v>1.152542372881356</v>
+        <v>1.096774193548387</v>
       </c>
       <c r="P136" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.3548387096774194</v>
       </c>
     </row>
     <row r="137">
@@ -8146,40 +8146,40 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1.51219512195122</v>
+        <v>1.531746031746032</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.1056910569105691</v>
+        <v>-0.0873015873015873</v>
       </c>
       <c r="G138" t="n">
-        <v>2.227642276422764</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="H138" t="n">
-        <v>0.3495934959349594</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="I138" t="n">
-        <v>0.1056910569105691</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="J138" t="n">
-        <v>4.821138211382114</v>
+        <v>4.896825396825397</v>
       </c>
       <c r="K138" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L138" t="n">
-        <v>4.821138211382114</v>
+        <v>4.841269841269841</v>
       </c>
       <c r="M138" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.4682539682539683</v>
       </c>
       <c r="N138" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="O138" t="n">
-        <v>1.32520325203252</v>
+        <v>1.341269841269841</v>
       </c>
       <c r="P138" t="n">
-        <v>0.08130081300813008</v>
+        <v>0.0873015873015873</v>
       </c>
     </row>
     <row r="139">
@@ -8258,40 +8258,40 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1.439024390243902</v>
+        <v>1.404761904761905</v>
       </c>
       <c r="F140" t="n">
-        <v>0.7479674796747967</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="G140" t="n">
-        <v>1.829268292682927</v>
+        <v>1.793650793650794</v>
       </c>
       <c r="H140" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="J140" t="n">
-        <v>0.08130081300813008</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="K140" t="n">
-        <v>0.008130081300813009</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="L140" t="n">
-        <v>2.292682926829268</v>
+        <v>2.238095238095238</v>
       </c>
       <c r="M140" t="n">
-        <v>0.2357723577235772</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1544715447154472</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="O140" t="n">
-        <v>1.073170731707317</v>
+        <v>1.047619047619048</v>
       </c>
       <c r="P140" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="141">
@@ -8314,40 +8314,40 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2.736363636363636</v>
+        <v>2.690265486725664</v>
       </c>
       <c r="F141" t="n">
-        <v>1.881818181818182</v>
+        <v>1.831858407079646</v>
       </c>
       <c r="G141" t="n">
-        <v>4.127272727272727</v>
+        <v>4.106194690265487</v>
       </c>
       <c r="H141" t="n">
-        <v>0.4727272727272727</v>
+        <v>0.4778761061946903</v>
       </c>
       <c r="I141" t="n">
-        <v>0.2909090909090909</v>
+        <v>0.2831858407079646</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1454545454545454</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="K141" t="n">
-        <v>0.00909090909090909</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="L141" t="n">
-        <v>3.454545454545455</v>
+        <v>3.407079646017699</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1769911504424779</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1909090909090909</v>
+        <v>0.1946902654867257</v>
       </c>
       <c r="O141" t="n">
-        <v>1.781818181818182</v>
+        <v>1.752212389380531</v>
       </c>
       <c r="P141" t="n">
-        <v>0.6636363636363637</v>
+        <v>0.6548672566371682</v>
       </c>
     </row>
     <row r="142">
@@ -8650,10 +8650,10 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>0.008403361344537815</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="F147" t="n">
-        <v>-0.08403361344537816</v>
+        <v>-0.08196721311475409</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -8665,13 +8665,13 @@
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>3.117647058823529</v>
+        <v>3.155737704918033</v>
       </c>
       <c r="K147" t="n">
-        <v>0.09243697478991597</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="L147" t="n">
-        <v>0.008403361344537815</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="M147" t="n">
         <v>0</v>
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="O147" t="n">
-        <v>0.008403361344537815</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="P147" t="n">
         <v>0</v>
@@ -8706,40 +8706,40 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1.758064516129032</v>
+        <v>1.738461538461539</v>
       </c>
       <c r="F148" t="n">
-        <v>1.145161290322581</v>
+        <v>1.107692307692308</v>
       </c>
       <c r="G148" t="n">
-        <v>2.903225806451613</v>
+        <v>2.861538461538462</v>
       </c>
       <c r="H148" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="I148" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="J148" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2153846153846154</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="L148" t="n">
-        <v>3.338709677419355</v>
+        <v>3.353846153846154</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="O148" t="n">
-        <v>1.274193548387097</v>
+        <v>1.261538461538461</v>
       </c>
       <c r="P148" t="n">
-        <v>0.4193548387096774</v>
+        <v>0.4153846153846154</v>
       </c>
     </row>
     <row r="149">
@@ -8762,40 +8762,40 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>3.078947368421053</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9852941176470589</v>
+        <v>1.039473684210526</v>
       </c>
       <c r="G149" t="n">
-        <v>3.220588235294118</v>
+        <v>3.171052631578947</v>
       </c>
       <c r="H149" t="n">
-        <v>0.75</v>
+        <v>0.8026315789473685</v>
       </c>
       <c r="I149" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="J149" t="n">
-        <v>5.573529411764706</v>
+        <v>5.407894736842105</v>
       </c>
       <c r="K149" t="n">
-        <v>0.3382352941176471</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L149" t="n">
-        <v>5.764705882352941</v>
+        <v>5.723684210526316</v>
       </c>
       <c r="M149" t="n">
-        <v>0.4264705882352941</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="N149" t="n">
-        <v>0.5</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="O149" t="n">
-        <v>2.441176470588236</v>
+        <v>2.486842105263158</v>
       </c>
       <c r="P149" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.3026315789473684</v>
       </c>
     </row>
     <row r="150">
@@ -8818,28 +8818,28 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>0.1774193548387097</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="F150" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="G150" t="n">
-        <v>1.129032258064516</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="H150" t="n">
-        <v>0.1129032258064516</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="I150" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="M150" t="n">
         <v>0</v>
@@ -8848,10 +8848,10 @@
         <v>0</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="P150" t="n">
-        <v>0.08064516129032258</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="151">
@@ -8930,40 +8930,40 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2.146341463414634</v>
+        <v>2.095238095238095</v>
       </c>
       <c r="F152" t="n">
-        <v>0.7886178861788617</v>
+        <v>0.7698412698412699</v>
       </c>
       <c r="G152" t="n">
-        <v>2.146341463414634</v>
+        <v>2.095238095238095</v>
       </c>
       <c r="H152" t="n">
-        <v>0.4146341463414634</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="I152" t="n">
-        <v>0.1219512195121951</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="J152" t="n">
-        <v>4</v>
+        <v>3.904761904761905</v>
       </c>
       <c r="K152" t="n">
-        <v>0.2357723577235772</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="L152" t="n">
-        <v>3.926829268292683</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="M152" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="N152" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="O152" t="n">
-        <v>1.861788617886179</v>
+        <v>1.817460317460317</v>
       </c>
       <c r="P152" t="n">
-        <v>0.1626016260162602</v>
+        <v>0.1587301587301587</v>
       </c>
     </row>
     <row r="153">
@@ -9098,40 +9098,40 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.1</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.1818181818181818</v>
+        <v>-0.1333333333333333</v>
       </c>
       <c r="G155" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>0.5</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="K155" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="M155" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
       </c>
       <c r="O155" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P155" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="156">
@@ -9210,28 +9210,28 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>0.02521008403361345</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.06722689075630252</v>
+        <v>-0.07377049180327869</v>
       </c>
       <c r="G157" t="n">
-        <v>0.2016806722689076</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="H157" t="n">
-        <v>0.01680672268907563</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="I157" t="n">
-        <v>0.008403361344537815</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="J157" t="n">
-        <v>1.815126050420168</v>
+        <v>1.885245901639344</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07563025210084033</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L157" t="n">
-        <v>0.008403361344537815</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="M157" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>0</v>
       </c>
       <c r="O157" t="n">
-        <v>0.008403361344537815</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="P157" t="n">
-        <v>0.008403361344537815</v>
+        <v>0.00819672131147541</v>
       </c>
     </row>
     <row r="158">
@@ -9266,28 +9266,28 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.0396039603960396</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="F158" t="n">
-        <v>-0.1584158415841584</v>
+        <v>-0.1538461538461539</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0297029702970297</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="H158" t="n">
-        <v>0.009900990099009901</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="I158" t="n">
-        <v>0.009900990099009901</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="J158" t="n">
-        <v>3.138613861386139</v>
+        <v>3.048076923076923</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1881188118811881</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04950495049504951</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="M158" t="n">
         <v>0</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="O158" t="n">
-        <v>0.0297029702970297</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="P158" t="n">
         <v>0</v>
@@ -9546,40 +9546,40 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1.492753623188406</v>
+        <v>1.538095238095238</v>
       </c>
       <c r="F163" t="n">
-        <v>1.082125603864734</v>
+        <v>1.114285714285714</v>
       </c>
       <c r="G163" t="n">
-        <v>1.917874396135266</v>
+        <v>1.938095238095238</v>
       </c>
       <c r="H163" t="n">
-        <v>0.1449275362318841</v>
+        <v>0.1523809523809524</v>
       </c>
       <c r="I163" t="n">
-        <v>0.04830917874396135</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J163" t="n">
-        <v>2.536231884057971</v>
+        <v>2.571428571428572</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1594202898550725</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="L163" t="n">
-        <v>2.454106280193237</v>
+        <v>2.547619047619047</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1497584541062802</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1497584541062802</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="O163" t="n">
-        <v>1.217391304347826</v>
+        <v>1.257142857142857</v>
       </c>
       <c r="P163" t="n">
-        <v>0.2270531400966184</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="164">
@@ -9602,40 +9602,40 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>0.4459459459459459</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.01351351351351351</v>
+        <v>-0.02597402597402598</v>
       </c>
       <c r="G164" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="H164" t="n">
-        <v>0.0945945945945946</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="I164" t="n">
-        <v>0.04054054054054054</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="J164" t="n">
-        <v>1.756756756756757</v>
+        <v>1.688311688311688</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1216216216216216</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="L164" t="n">
-        <v>1.337837837837838</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06756756756756757</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1756756756756757</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="O164" t="n">
-        <v>0.3243243243243243</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="P164" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.07792207792207792</v>
       </c>
     </row>
     <row r="165">
@@ -9770,40 +9770,40 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>2.234375</v>
+        <v>2.286764705882353</v>
       </c>
       <c r="F167" t="n">
-        <v>1.1953125</v>
+        <v>1.279411764705882</v>
       </c>
       <c r="G167" t="n">
-        <v>2.6796875</v>
+        <v>2.713235294117647</v>
       </c>
       <c r="H167" t="n">
-        <v>0.7734375</v>
+        <v>0.7573529411764706</v>
       </c>
       <c r="I167" t="n">
-        <v>0.2109375</v>
+        <v>0.1985294117647059</v>
       </c>
       <c r="J167" t="n">
-        <v>0.140625</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0390625</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="L167" t="n">
-        <v>2.421875</v>
+        <v>2.411764705882353</v>
       </c>
       <c r="M167" t="n">
-        <v>0.09375</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1328125</v>
+        <v>0.125</v>
       </c>
       <c r="O167" t="n">
-        <v>1.4921875</v>
+        <v>1.522058823529412</v>
       </c>
       <c r="P167" t="n">
-        <v>0.53125</v>
+        <v>0.5661764705882353</v>
       </c>
     </row>
     <row r="168">
@@ -9832,7 +9832,7 @@
         <v>-0.4776119402985075</v>
       </c>
       <c r="G168" t="n">
-        <v>1.164179104477612</v>
+        <v>1.149253731343284</v>
       </c>
       <c r="H168" t="n">
         <v>0.4925373134328358</v>
@@ -9847,7 +9847,7 @@
         <v>0.2835820895522388</v>
       </c>
       <c r="L168" t="n">
-        <v>1.865671641791045</v>
+        <v>1.880597014925373</v>
       </c>
       <c r="M168" t="n">
         <v>0.1791044776119403</v>
@@ -9882,40 +9882,40 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1.714285714285714</v>
+        <v>1.745901639344262</v>
       </c>
       <c r="F169" t="n">
-        <v>1.386554621848739</v>
+        <v>1.418032786885246</v>
       </c>
       <c r="G169" t="n">
-        <v>2.638655462184874</v>
+        <v>2.639344262295082</v>
       </c>
       <c r="H169" t="n">
-        <v>0.1596638655462185</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="I169" t="n">
-        <v>0.1092436974789916</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="J169" t="n">
-        <v>0.134453781512605</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="K169" t="n">
         <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>1.789915966386555</v>
+        <v>1.811475409836065</v>
       </c>
       <c r="M169" t="n">
-        <v>0.02521008403361345</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="O169" t="n">
-        <v>1.058823529411765</v>
+        <v>1.065573770491803</v>
       </c>
       <c r="P169" t="n">
-        <v>0.5462184873949579</v>
+        <v>0.5737704918032787</v>
       </c>
     </row>
     <row r="170">
@@ -9938,40 +9938,40 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="F170" t="n">
-        <v>-0.03333333333333333</v>
+        <v>-0.008130081300813009</v>
       </c>
       <c r="G170" t="n">
-        <v>1.666666666666667</v>
+        <v>1.764227642276423</v>
       </c>
       <c r="H170" t="n">
-        <v>0.1916666666666667</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="I170" t="n">
-        <v>0.1083333333333333</v>
+        <v>0.1056910569105691</v>
       </c>
       <c r="J170" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="M170" t="n">
         <v>0</v>
       </c>
       <c r="N170" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="O170" t="n">
-        <v>0.05</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="P170" t="n">
-        <v>0.008333333333333333</v>
+        <v>0.01626016260162602</v>
       </c>
     </row>
     <row r="171">
@@ -9994,40 +9994,40 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1.528571428571428</v>
+        <v>1.564102564102564</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="G171" t="n">
-        <v>3.328571428571429</v>
+        <v>3.448717948717949</v>
       </c>
       <c r="H171" t="n">
-        <v>0.8285714285714286</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="I171" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="J171" t="n">
-        <v>0.2</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="K171" t="n">
-        <v>0.01428571428571429</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="L171" t="n">
-        <v>1.414285714285714</v>
+        <v>1.551282051282051</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="O171" t="n">
-        <v>0.9714285714285714</v>
+        <v>1.012820512820513</v>
       </c>
       <c r="P171" t="n">
-        <v>0.3285714285714286</v>
+        <v>0.3205128205128205</v>
       </c>
     </row>
     <row r="172">
@@ -10050,40 +10050,40 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3.194029850746269</v>
+        <v>3.226666666666667</v>
       </c>
       <c r="F172" t="n">
-        <v>1.552238805970149</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="G172" t="n">
-        <v>2.776119402985075</v>
+        <v>2.826666666666667</v>
       </c>
       <c r="H172" t="n">
-        <v>0.746268656716418</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="I172" t="n">
-        <v>0.2537313432835821</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="J172" t="n">
-        <v>4.552238805970149</v>
+        <v>4.653333333333333</v>
       </c>
       <c r="K172" t="n">
-        <v>0.2388059701492537</v>
+        <v>0.24</v>
       </c>
       <c r="L172" t="n">
-        <v>4.492537313432836</v>
+        <v>4.706666666666667</v>
       </c>
       <c r="M172" t="n">
-        <v>0.3432835820895522</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="N172" t="n">
-        <v>0.3134328358208955</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="O172" t="n">
-        <v>2.701492537313433</v>
+        <v>2.733333333333333</v>
       </c>
       <c r="P172" t="n">
-        <v>0.2388059701492537</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="173">
@@ -10106,40 +10106,40 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.4</v>
       </c>
       <c r="F173" t="n">
-        <v>-0.09677419354838709</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="G173" t="n">
-        <v>0.5967741935483871</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I173" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="J173" t="n">
-        <v>2.048387096774194</v>
+        <v>1.984615384615385</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1129032258064516</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="L173" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08064516129032258</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="O173" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="P173" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="174">
@@ -10162,40 +10162,40 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>0.5230769230769231</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="F174" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="G174" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="I174" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="J174" t="n">
-        <v>1.138461538461538</v>
+        <v>1.085714285714286</v>
       </c>
       <c r="K174" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="L174" t="n">
-        <v>0.8</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M174" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="O174" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.3428571428571429</v>
       </c>
       <c r="P174" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.1142857142857143</v>
       </c>
     </row>
     <row r="175">
@@ -10274,40 +10274,40 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>0.1639344262295082</v>
+        <v>0.15625</v>
       </c>
       <c r="F176" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.046875</v>
       </c>
       <c r="G176" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.375</v>
       </c>
       <c r="H176" t="n">
-        <v>0.08196721311475409</v>
+        <v>0.078125</v>
       </c>
       <c r="I176" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="J176" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="K176" t="n">
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>0.3278688524590164</v>
+        <v>0.3125</v>
       </c>
       <c r="M176" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="N176" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1311475409836066</v>
+        <v>0.125</v>
       </c>
       <c r="P176" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="177">
@@ -10330,19 +10330,19 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>0.9</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F177" t="n">
-        <v>0.3</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G177" t="n">
-        <v>3.8</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="H177" t="n">
         <v>0.5</v>
       </c>
       <c r="I177" t="n">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>0.8</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="M177" t="n">
         <v>0</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="O177" t="n">
-        <v>0.3</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="P177" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="178">
@@ -10442,40 +10442,40 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.1744186046511628</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="F179" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="G179" t="n">
-        <v>0.6279069767441861</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="H179" t="n">
-        <v>0.1046511627906977</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="I179" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="J179" t="n">
-        <v>0.05813953488372093</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="K179" t="n">
-        <v>0.01162790697674419</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2209302325581395</v>
+        <v>0.2134831460674157</v>
       </c>
       <c r="M179" t="n">
-        <v>0.03488372093023256</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="N179" t="n">
         <v>0</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1162790697674419</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="P179" t="n">
-        <v>0.03488372093023256</v>
+        <v>0.03370786516853932</v>
       </c>
     </row>
     <row r="180">
@@ -10498,40 +10498,40 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>2.39344262295082</v>
+        <v>2.484375</v>
       </c>
       <c r="F180" t="n">
-        <v>0.8688524590163934</v>
+        <v>0.953125</v>
       </c>
       <c r="G180" t="n">
-        <v>2.704918032786885</v>
+        <v>2.671875</v>
       </c>
       <c r="H180" t="n">
-        <v>0.6229508196721312</v>
+        <v>0.609375</v>
       </c>
       <c r="I180" t="n">
-        <v>0.2295081967213115</v>
+        <v>0.21875</v>
       </c>
       <c r="J180" t="n">
-        <v>3.737704918032787</v>
+        <v>3.953125</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.171875</v>
       </c>
       <c r="L180" t="n">
-        <v>3.885245901639344</v>
+        <v>3.984375</v>
       </c>
       <c r="M180" t="n">
-        <v>0.3442622950819672</v>
+        <v>0.328125</v>
       </c>
       <c r="N180" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.421875</v>
       </c>
       <c r="O180" t="n">
-        <v>1.950819672131147</v>
+        <v>2.0625</v>
       </c>
       <c r="P180" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.203125</v>
       </c>
     </row>
     <row r="181">
@@ -10554,40 +10554,40 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1.061538461538462</v>
+        <v>1.114285714285714</v>
       </c>
       <c r="F181" t="n">
-        <v>0.4307692307692308</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="G181" t="n">
-        <v>1.676923076923077</v>
+        <v>1.771428571428571</v>
       </c>
       <c r="H181" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="I181" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="J181" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="K181" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="L181" t="n">
-        <v>1.461538461538461</v>
+        <v>1.514285714285714</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1692307692307692</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="N181" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="O181" t="n">
-        <v>0.7846153846153846</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P181" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="182">
@@ -10610,40 +10610,40 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3.938461538461539</v>
+        <v>3.957142857142857</v>
       </c>
       <c r="F182" t="n">
-        <v>2.138461538461538</v>
+        <v>2.142857142857143</v>
       </c>
       <c r="G182" t="n">
-        <v>3.661538461538461</v>
+        <v>3.6</v>
       </c>
       <c r="H182" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="I182" t="n">
         <v>0.2</v>
       </c>
       <c r="J182" t="n">
-        <v>5.753846153846154</v>
+        <v>5.828571428571428</v>
       </c>
       <c r="K182" t="n">
-        <v>0.4769230769230769</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L182" t="n">
-        <v>6.507692307692308</v>
+        <v>6.485714285714286</v>
       </c>
       <c r="M182" t="n">
-        <v>0.3692307692307693</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="N182" t="n">
-        <v>0.6</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="O182" t="n">
-        <v>3.415384615384615</v>
+        <v>3.442857142857143</v>
       </c>
       <c r="P182" t="n">
-        <v>0.3230769230769231</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="183">
@@ -10666,40 +10666,40 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>0.5409836065573771</v>
+        <v>0.625</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3934426229508197</v>
+        <v>0.453125</v>
       </c>
       <c r="G183" t="n">
-        <v>0.8852459016393442</v>
+        <v>1.03125</v>
       </c>
       <c r="H183" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.125</v>
       </c>
       <c r="I183" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.046875</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.65625</v>
       </c>
       <c r="M183" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.03125</v>
       </c>
       <c r="O183" t="n">
-        <v>0.3114754098360656</v>
+        <v>0.390625</v>
       </c>
       <c r="P183" t="n">
-        <v>0.180327868852459</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="184">
@@ -10778,40 +10778,40 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.9821428571428571</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="F185" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="G185" t="n">
-        <v>1.696428571428571</v>
+        <v>1.610169491525424</v>
       </c>
       <c r="H185" t="n">
-        <v>0.4464285714285715</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="I185" t="n">
-        <v>0.08928571428571429</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="K185" t="n">
         <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>1.517857142857143</v>
+        <v>1.440677966101695</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08928571428571429</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="O185" t="n">
-        <v>0.75</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="P185" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1355932203389831</v>
       </c>
     </row>
     <row r="186">
@@ -10890,40 +10890,40 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>1.338709677419355</v>
+        <v>1.430769230769231</v>
       </c>
       <c r="F187" t="n">
-        <v>0.5645161290322581</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="G187" t="n">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
-        <v>0.1774193548387097</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="I187" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="J187" t="n">
-        <v>0.08064516129032258</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K187" t="n">
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>2.806451612903226</v>
+        <v>2.969230769230769</v>
       </c>
       <c r="M187" t="n">
-        <v>0.3548387096774194</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="N187" t="n">
-        <v>0.2419354838709677</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="O187" t="n">
-        <v>1.17741935483871</v>
+        <v>1.276923076923077</v>
       </c>
       <c r="P187" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.1384615384615385</v>
       </c>
     </row>
     <row r="188">
@@ -10946,40 +10946,40 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="F188" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="G188" t="n">
-        <v>1.564516129032258</v>
+        <v>1.6</v>
       </c>
       <c r="H188" t="n">
-        <v>0.3064516129032258</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="I188" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="J188" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="K188" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L188" t="n">
-        <v>1.112903225806452</v>
+        <v>1.092307692307692</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="O188" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="P188" t="n">
-        <v>0.1129032258064516</v>
+        <v>0.1076923076923077</v>
       </c>
     </row>
     <row r="189">
@@ -11002,19 +11002,19 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>0.2153846153846154</v>
+        <v>0.2</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.2307692307692308</v>
+        <v>-0.2142857142857143</v>
       </c>
       <c r="G189" t="n">
-        <v>1.876923076923077</v>
+        <v>1.771428571428571</v>
       </c>
       <c r="H189" t="n">
-        <v>0.4307692307692308</v>
+        <v>0.4</v>
       </c>
       <c r="I189" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="J189" t="n">
         <v>0</v>
@@ -11023,19 +11023,19 @@
         <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="M189" t="n">
         <v>0</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="O189" t="n">
         <v>0</v>
       </c>
       <c r="P189" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02857142857142857</v>
       </c>
     </row>
     <row r="190">
@@ -11058,40 +11058,40 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>4</v>
+        <v>3.992063492063492</v>
       </c>
       <c r="F190" t="n">
-        <v>2.227642276422764</v>
+        <v>2.190476190476191</v>
       </c>
       <c r="G190" t="n">
-        <v>3.577235772357723</v>
+        <v>3.626984126984127</v>
       </c>
       <c r="H190" t="n">
-        <v>0.7154471544715447</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I190" t="n">
-        <v>0.4715447154471545</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="J190" t="n">
-        <v>0.008130081300813009</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="K190" t="n">
-        <v>0.008130081300813009</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="L190" t="n">
-        <v>6.544715447154472</v>
+        <v>6.579365079365079</v>
       </c>
       <c r="M190" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="N190" t="n">
-        <v>0.5853658536585366</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="O190" t="n">
-        <v>3.284552845528455</v>
+        <v>3.261904761904762</v>
       </c>
       <c r="P190" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.2380952380952381</v>
       </c>
     </row>
     <row r="191">
@@ -11114,40 +11114,40 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>1.030612244897959</v>
+        <v>1.113207547169811</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7755102040816326</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="G191" t="n">
-        <v>2.275510204081633</v>
+        <v>2.40566037735849</v>
       </c>
       <c r="H191" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="I191" t="n">
-        <v>0.05102040816326531</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="J191" t="n">
-        <v>0.06122448979591837</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
       </c>
       <c r="L191" t="n">
-        <v>1.5</v>
+        <v>1.754716981132076</v>
       </c>
       <c r="M191" t="n">
-        <v>0.06122448979591837</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1122448979591837</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="O191" t="n">
-        <v>0.7040816326530612</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="P191" t="n">
-        <v>0.2755102040816326</v>
+        <v>0.2735849056603774</v>
       </c>
     </row>
     <row r="192">
@@ -11170,40 +11170,40 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.5691056910569106</v>
       </c>
       <c r="F192" t="n">
-        <v>-0.09565217391304348</v>
+        <v>-0.0975609756097561</v>
       </c>
       <c r="G192" t="n">
-        <v>2.547826086956522</v>
+        <v>2.658536585365854</v>
       </c>
       <c r="H192" t="n">
-        <v>0.5478260869565217</v>
+        <v>0.5447154471544715</v>
       </c>
       <c r="I192" t="n">
-        <v>0.191304347826087</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="J192" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="K192" t="n">
-        <v>0.01739130434782609</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="L192" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.4959349593495935</v>
       </c>
       <c r="M192" t="n">
-        <v>0.06956521739130435</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02608695652173913</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2869565217391304</v>
+        <v>0.3008130081300813</v>
       </c>
       <c r="P192" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.08130081300813008</v>
       </c>
     </row>
     <row r="193">
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>-0.288135593220339</v>
+        <v>-0.3064516129032258</v>
       </c>
       <c r="G193" t="n">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>4.101694915254237</v>
+        <v>4.17741935483871</v>
       </c>
       <c r="K193" t="n">
-        <v>0.288135593220339</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="L193" t="n">
         <v>0</v>
@@ -11450,40 +11450,40 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>1.104166666666667</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="F197" t="n">
-        <v>0.5520833333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="G197" t="n">
-        <v>2.541666666666667</v>
+        <v>2.565656565656566</v>
       </c>
       <c r="H197" t="n">
-        <v>0.2604166666666667</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="I197" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="J197" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="K197" t="n">
         <v>0</v>
       </c>
       <c r="L197" t="n">
-        <v>1.5625</v>
+        <v>1.606060606060606</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1979166666666667</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09375</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="O197" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.7676767676767676</v>
       </c>
       <c r="P197" t="n">
-        <v>0.1979166666666667</v>
+        <v>0.202020202020202</v>
       </c>
     </row>
     <row r="198">
@@ -11730,10 +11730,10 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1.014925373134328</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7164179104477612</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="G202" t="n">
         <v>1.656716417910448</v>
@@ -11745,7 +11745,7 @@
         <v>0.04477611940298507</v>
       </c>
       <c r="J202" t="n">
-        <v>0.08955223880597014</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="K202" t="n">
         <v>0.01492537313432836</v>
@@ -11760,7 +11760,7 @@
         <v>0.01492537313432836</v>
       </c>
       <c r="O202" t="n">
-        <v>0.7014925373134329</v>
+        <v>0.6865671641791045</v>
       </c>
       <c r="P202" t="n">
         <v>0.2686567164179104</v>
@@ -11786,40 +11786,40 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2</v>
+        <v>1.946808510638298</v>
       </c>
       <c r="F203" t="n">
-        <v>1.406593406593407</v>
+        <v>1.361702127659574</v>
       </c>
       <c r="G203" t="n">
-        <v>3.417582417582417</v>
+        <v>3.340425531914894</v>
       </c>
       <c r="H203" t="n">
-        <v>0.3186813186813187</v>
+        <v>0.3085106382978723</v>
       </c>
       <c r="I203" t="n">
-        <v>0.0989010989010989</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="J203" t="n">
-        <v>0.08791208791208792</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="K203" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="L203" t="n">
-        <v>2.659340659340659</v>
+        <v>2.617021276595745</v>
       </c>
       <c r="M203" t="n">
-        <v>0.0989010989010989</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="O203" t="n">
-        <v>1.406593406593407</v>
+        <v>1.372340425531915</v>
       </c>
       <c r="P203" t="n">
-        <v>0.4945054945054945</v>
+        <v>0.4787234042553192</v>
       </c>
     </row>
     <row r="204">
@@ -11898,40 +11898,40 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>0.4464285714285715</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="F205" t="n">
-        <v>0.01785714285714286</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G205" t="n">
-        <v>0.7678571428571429</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="H205" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="I205" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="J205" t="n">
-        <v>1.660714285714286</v>
+        <v>1.576271186440678</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1607142857142857</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="L205" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="M205" t="n">
-        <v>0.05357142857142857</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="O205" t="n">
-        <v>0.3035714285714285</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="P205" t="n">
-        <v>0.08928571428571429</v>
+        <v>0.0847457627118644</v>
       </c>
     </row>
     <row r="206">
@@ -11954,19 +11954,19 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>0.6029411764705882</v>
+        <v>0.7236842105263158</v>
       </c>
       <c r="F206" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="G206" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="H206" t="n">
-        <v>0.1911764705882353</v>
+        <v>0.25</v>
       </c>
       <c r="I206" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="J206" t="n">
         <v>0</v>
@@ -11975,19 +11975,19 @@
         <v>0</v>
       </c>
       <c r="L206" t="n">
-        <v>1.617647058823529</v>
+        <v>1.763157894736842</v>
       </c>
       <c r="M206" t="n">
-        <v>0.08823529411764706</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="O206" t="n">
-        <v>0.5735294117647058</v>
+        <v>0.618421052631579</v>
       </c>
       <c r="P206" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.0131578947368421</v>
       </c>
     </row>
     <row r="207">
@@ -12010,40 +12010,40 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>0.237410071942446</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="F207" t="n">
-        <v>-0.02877697841726619</v>
+        <v>-0.05442176870748299</v>
       </c>
       <c r="G207" t="n">
-        <v>0.3597122302158273</v>
+        <v>0.3537414965986395</v>
       </c>
       <c r="H207" t="n">
-        <v>0.08633093525179857</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="I207" t="n">
-        <v>0.03597122302158273</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="J207" t="n">
-        <v>1</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="K207" t="n">
-        <v>0.07194244604316546</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="L207" t="n">
-        <v>0.5611510791366906</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M207" t="n">
-        <v>0.05035971223021583</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="N207" t="n">
-        <v>0.05755395683453238</v>
+        <v>0.06802721088435375</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1726618705035971</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="P207" t="n">
-        <v>0.02877697841726619</v>
+        <v>0.0272108843537415</v>
       </c>
     </row>
     <row r="208">
@@ -12066,10 +12066,10 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>3.948275862068965</v>
+        <v>3.96551724137931</v>
       </c>
       <c r="F208" t="n">
-        <v>2.224137931034483</v>
+        <v>2.241379310344827</v>
       </c>
       <c r="G208" t="n">
         <v>2.103448275862069</v>
@@ -12087,7 +12087,7 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="L208" t="n">
-        <v>8</v>
+        <v>8.017241379310345</v>
       </c>
       <c r="M208" t="n">
         <v>0.6551724137931034</v>
@@ -12096,7 +12096,7 @@
         <v>0.6379310344827587</v>
       </c>
       <c r="O208" t="n">
-        <v>3.758620689655173</v>
+        <v>3.775862068965517</v>
       </c>
       <c r="P208" t="n">
         <v>0.1379310344827586</v>
@@ -12178,40 +12178,40 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>1.294573643410853</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F210" t="n">
-        <v>0.6589147286821705</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="G210" t="n">
-        <v>2.054263565891473</v>
+        <v>2.075757575757576</v>
       </c>
       <c r="H210" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.4015151515151515</v>
       </c>
       <c r="I210" t="n">
-        <v>0.08527131782945736</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1782945736434109</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K210" t="n">
-        <v>0.03875968992248062</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="L210" t="n">
-        <v>1.782945736434109</v>
+        <v>1.848484848484848</v>
       </c>
       <c r="M210" t="n">
-        <v>0.08527131782945736</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1162790697674419</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="O210" t="n">
-        <v>0.8604651162790697</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="P210" t="n">
-        <v>0.3488372093023256</v>
+        <v>0.3560606060606061</v>
       </c>
     </row>
     <row r="211">
@@ -12290,40 +12290,40 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="F212" t="n">
-        <v>0.2580645161290323</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="G212" t="n">
-        <v>1.548387096774194</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="H212" t="n">
-        <v>0.3870967741935484</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>1.967741935483871</v>
+        <v>1.564102564102564</v>
       </c>
       <c r="K212" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="L212" t="n">
-        <v>1.806451612903226</v>
+        <v>1.435897435897436</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="O212" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="P212" t="n">
-        <v>0.03225806451612903</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="213">
@@ -12346,40 +12346,40 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>0.9293478260869565</v>
+        <v>0.9732620320855615</v>
       </c>
       <c r="F213" t="n">
-        <v>0.3858695652173913</v>
+        <v>0.3850267379679144</v>
       </c>
       <c r="G213" t="n">
-        <v>2.25</v>
+        <v>2.288770053475936</v>
       </c>
       <c r="H213" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.3368983957219251</v>
       </c>
       <c r="I213" t="n">
-        <v>0.1195652173913044</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J213" t="n">
-        <v>0.2282608695652174</v>
+        <v>0.2245989304812834</v>
       </c>
       <c r="K213" t="n">
-        <v>0.02717391304347826</v>
+        <v>0.0267379679144385</v>
       </c>
       <c r="L213" t="n">
-        <v>1.358695652173913</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1032608695652174</v>
+        <v>0.1336898395721925</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="O213" t="n">
-        <v>0.625</v>
+        <v>0.6737967914438503</v>
       </c>
       <c r="P213" t="n">
-        <v>0.1847826086956522</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="214">
@@ -12402,40 +12402,40 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1.496894409937888</v>
+        <v>1.451807228915663</v>
       </c>
       <c r="F214" t="n">
-        <v>0.6335403726708074</v>
+        <v>0.6084337349397591</v>
       </c>
       <c r="G214" t="n">
-        <v>1.15527950310559</v>
+        <v>1.120481927710843</v>
       </c>
       <c r="H214" t="n">
-        <v>0.1863354037267081</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="I214" t="n">
-        <v>0.06832298136645963</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="J214" t="n">
-        <v>3.366459627329192</v>
+        <v>3.397590361445783</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1987577639751553</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L214" t="n">
-        <v>3.304347826086957</v>
+        <v>3.204819277108434</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.2530120481927711</v>
       </c>
       <c r="N214" t="n">
-        <v>0.2173913043478261</v>
+        <v>0.2108433734939759</v>
       </c>
       <c r="O214" t="n">
-        <v>1.335403726708075</v>
+        <v>1.295180722891566</v>
       </c>
       <c r="P214" t="n">
-        <v>0.09316770186335403</v>
+        <v>0.09036144578313253</v>
       </c>
     </row>
     <row r="215">
@@ -12458,40 +12458,40 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8208955223880597</v>
       </c>
       <c r="F215" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="G215" t="n">
-        <v>1.354838709677419</v>
+        <v>1.313432835820896</v>
       </c>
       <c r="H215" t="n">
-        <v>0.4032258064516129</v>
+        <v>0.373134328358209</v>
       </c>
       <c r="I215" t="n">
-        <v>0.08064516129032258</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="J215" t="n">
-        <v>0.08064516129032258</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="K215" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="L215" t="n">
-        <v>1.5</v>
+        <v>1.507462686567164</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1774193548387097</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="O215" t="n">
-        <v>0.6129032258064516</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="P215" t="n">
-        <v>0.1451612903225807</v>
+        <v>0.1343283582089552</v>
       </c>
     </row>
     <row r="216">
@@ -12570,40 +12570,40 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>2.285714285714286</v>
+        <v>2.24822695035461</v>
       </c>
       <c r="F217" t="n">
-        <v>1.383458646616541</v>
+        <v>1.397163120567376</v>
       </c>
       <c r="G217" t="n">
-        <v>2.300751879699248</v>
+        <v>2.198581560283688</v>
       </c>
       <c r="H217" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2695035460992908</v>
       </c>
       <c r="I217" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="J217" t="n">
-        <v>3.947368421052631</v>
+        <v>3.794326241134752</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2482269503546099</v>
       </c>
       <c r="L217" t="n">
-        <v>3.721804511278195</v>
+        <v>3.602836879432624</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1203007518796992</v>
+        <v>0.1134751773049645</v>
       </c>
       <c r="N217" t="n">
-        <v>0.2330827067669173</v>
+        <v>0.2198581560283688</v>
       </c>
       <c r="O217" t="n">
-        <v>2.022556390977444</v>
+        <v>1.971631205673759</v>
       </c>
       <c r="P217" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2269503546099291</v>
       </c>
     </row>
     <row r="218">
@@ -12682,19 +12682,19 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>0.007194244604316547</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.03597122302158273</v>
+        <v>-0.03401360544217687</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2949640287769784</v>
+        <v>0.2789115646258503</v>
       </c>
       <c r="H219" t="n">
-        <v>0.03597122302158273</v>
+        <v>0.03401360544217687</v>
       </c>
       <c r="I219" t="n">
-        <v>0.007194244604316547</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="J219" t="n">
         <v>0</v>
@@ -12703,13 +12703,13 @@
         <v>0</v>
       </c>
       <c r="L219" t="n">
-        <v>0.007194244604316547</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="M219" t="n">
         <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>0.007194244604316547</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="O219" t="n">
         <v>0</v>
@@ -12738,40 +12738,40 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>0.8157894736842105</v>
+        <v>0.8031088082901554</v>
       </c>
       <c r="F220" t="n">
-        <v>0.1368421052631579</v>
+        <v>0.1347150259067358</v>
       </c>
       <c r="G220" t="n">
-        <v>2.247368421052632</v>
+        <v>2.212435233160622</v>
       </c>
       <c r="H220" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.4404145077720207</v>
       </c>
       <c r="I220" t="n">
-        <v>0.1</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="J220" t="n">
-        <v>1.047368421052632</v>
+        <v>1.031088082901555</v>
       </c>
       <c r="K220" t="n">
-        <v>0.05789473684210526</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="L220" t="n">
-        <v>1.136842105263158</v>
+        <v>1.119170984455959</v>
       </c>
       <c r="M220" t="n">
-        <v>0.07368421052631578</v>
+        <v>0.07253886010362694</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="O220" t="n">
-        <v>0.5473684210526316</v>
+        <v>0.538860103626943</v>
       </c>
       <c r="P220" t="n">
-        <v>0.1684210526315789</v>
+        <v>0.1658031088082902</v>
       </c>
     </row>
     <row r="221">
@@ -12797,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.3777777777777778</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -12809,13 +12809,13 @@
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>4.976923076923077</v>
+        <v>4.970370370370371</v>
       </c>
       <c r="K221" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="L221" t="n">
-        <v>0.007692307692307693</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="M221" t="n">
         <v>0</v>
@@ -12850,40 +12850,40 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>0.5441176470588235</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="F222" t="n">
-        <v>0.1617647058823529</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="G222" t="n">
-        <v>1.161764705882353</v>
+        <v>1.039473684210526</v>
       </c>
       <c r="H222" t="n">
-        <v>0.2794117647058824</v>
+        <v>0.25</v>
       </c>
       <c r="I222" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="J222" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="K222" t="n">
         <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="M222" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="N222" t="n">
-        <v>0.04411764705882353</v>
+        <v>0.03947368421052631</v>
       </c>
       <c r="O222" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="P222" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.131578947368421</v>
       </c>
     </row>
     <row r="223">
@@ -12906,10 +12906,10 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.007352941176470588</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.007352941176470588</v>
+        <v>-0.006944444444444444</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -12921,13 +12921,13 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>0.5441176470588235</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="K223" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="L223" t="n">
-        <v>0.01470588235294118</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="M223" t="n">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="O223" t="n">
-        <v>0.007352941176470588</v>
+        <v>0.006944444444444444</v>
       </c>
       <c r="P223" t="n">
         <v>0</v>
@@ -12962,40 +12962,40 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>1.5</v>
+        <v>1.481481481481481</v>
       </c>
       <c r="F224" t="n">
-        <v>0.8538461538461538</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="G224" t="n">
-        <v>2.392307692307692</v>
+        <v>2.42962962962963</v>
       </c>
       <c r="H224" t="n">
-        <v>0.3615384615384615</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="I224" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1230769230769231</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="K224" t="n">
-        <v>0.02307692307692308</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="L224" t="n">
-        <v>1.676923076923077</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1076923076923077</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O224" t="n">
-        <v>0.9307692307692308</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="P224" t="n">
-        <v>0.4769230769230769</v>
+        <v>0.4740740740740741</v>
       </c>
     </row>
     <row r="225">
@@ -13018,40 +13018,40 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>2.669172932330827</v>
+        <v>2.654411764705882</v>
       </c>
       <c r="F225" t="n">
-        <v>0.8120300751879699</v>
+        <v>0.7867647058823529</v>
       </c>
       <c r="G225" t="n">
-        <v>3.368421052631579</v>
+        <v>3.367647058823529</v>
       </c>
       <c r="H225" t="n">
-        <v>0.518796992481203</v>
+        <v>0.5220588235294118</v>
       </c>
       <c r="I225" t="n">
-        <v>0.1203007518796992</v>
+        <v>0.125</v>
       </c>
       <c r="J225" t="n">
-        <v>6.195488721804511</v>
+        <v>6.235294117647059</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2330827067669173</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L225" t="n">
-        <v>4.969924812030075</v>
+        <v>4.985294117647059</v>
       </c>
       <c r="M225" t="n">
-        <v>0.6616541353383458</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="N225" t="n">
-        <v>0.443609022556391</v>
+        <v>0.4485294117647059</v>
       </c>
       <c r="O225" t="n">
-        <v>2.180451127819549</v>
+        <v>2.161764705882353</v>
       </c>
       <c r="P225" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.3676470588235294</v>
       </c>
     </row>
     <row r="226">
@@ -13074,40 +13074,40 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>0.2338709677419355</v>
+        <v>0.2248062015503876</v>
       </c>
       <c r="F226" t="n">
-        <v>0.1532258064516129</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="G226" t="n">
-        <v>1.548387096774194</v>
+        <v>1.488372093023256</v>
       </c>
       <c r="H226" t="n">
-        <v>0.0564516129032258</v>
+        <v>0.05426356589147287</v>
       </c>
       <c r="I226" t="n">
-        <v>0.04032258064516129</v>
+        <v>0.03875968992248062</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02419354838709677</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K226" t="n">
-        <v>0.008064516129032258</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1370967741935484</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="M226" t="n">
-        <v>0.008064516129032258</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="N226" t="n">
-        <v>0.008064516129032258</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="O226" t="n">
-        <v>0.07258064516129033</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="P226" t="n">
-        <v>0.1209677419354839</v>
+        <v>0.1162790697674419</v>
       </c>
     </row>
     <row r="227">
@@ -13298,13 +13298,13 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="F230" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="G230" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.03125</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13319,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.03125</v>
       </c>
       <c r="M230" t="n">
         <v>0</v>
@@ -13331,7 +13331,7 @@
         <v>0</v>
       </c>
       <c r="P230" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="231">
@@ -13466,40 +13466,40 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>2.776923076923077</v>
+        <v>2.77037037037037</v>
       </c>
       <c r="F233" t="n">
-        <v>1.1</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="G233" t="n">
-        <v>3.384615384615385</v>
+        <v>3.4</v>
       </c>
       <c r="H233" t="n">
-        <v>0.7615384615384615</v>
+        <v>0.762962962962963</v>
       </c>
       <c r="I233" t="n">
-        <v>0.4846153846153846</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="J233" t="n">
-        <v>5.530769230769231</v>
+        <v>5.496296296296296</v>
       </c>
       <c r="K233" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.4</v>
       </c>
       <c r="L233" t="n">
-        <v>5.061538461538461</v>
+        <v>5.059259259259259</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="N233" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.237037037037037</v>
       </c>
       <c r="O233" t="n">
-        <v>2.115384615384615</v>
+        <v>2.096296296296296</v>
       </c>
       <c r="P233" t="n">
-        <v>0.1769230769230769</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="234">
@@ -13522,40 +13522,40 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>2.932203389830509</v>
+        <v>2.919354838709677</v>
       </c>
       <c r="F234" t="n">
-        <v>1.64406779661017</v>
+        <v>1.629032258064516</v>
       </c>
       <c r="G234" t="n">
-        <v>2.372881355932203</v>
+        <v>2.387096774193548</v>
       </c>
       <c r="H234" t="n">
-        <v>0.4915254237288136</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="I234" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="J234" t="n">
-        <v>2.88135593220339</v>
+        <v>2.967741935483871</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L234" t="n">
-        <v>4.796610169491525</v>
+        <v>4.741935483870968</v>
       </c>
       <c r="M234" t="n">
-        <v>0.3898305084745763</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="N234" t="n">
-        <v>0.3050847457627119</v>
+        <v>0.2903225806451613</v>
       </c>
       <c r="O234" t="n">
-        <v>2.423728813559322</v>
+        <v>2.435483870967742</v>
       </c>
       <c r="P234" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.3064516129032258</v>
       </c>
     </row>
     <row r="235">
@@ -13690,40 +13690,40 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>2.697247706422018</v>
+        <v>2.660714285714286</v>
       </c>
       <c r="F237" t="n">
-        <v>0.7889908256880734</v>
+        <v>0.7946428571428571</v>
       </c>
       <c r="G237" t="n">
-        <v>2.706422018348624</v>
+        <v>2.669642857142857</v>
       </c>
       <c r="H237" t="n">
-        <v>0.7247706422018348</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I237" t="n">
-        <v>0.2844036697247707</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J237" t="n">
-        <v>6</v>
+        <v>5.875</v>
       </c>
       <c r="K237" t="n">
-        <v>0.5779816513761468</v>
+        <v>0.5625</v>
       </c>
       <c r="L237" t="n">
-        <v>4.743119266055046</v>
+        <v>4.6875</v>
       </c>
       <c r="M237" t="n">
-        <v>0.3394495412844037</v>
+        <v>0.3303571428571428</v>
       </c>
       <c r="N237" t="n">
-        <v>0.2660550458715596</v>
+        <v>0.2589285714285715</v>
       </c>
       <c r="O237" t="n">
-        <v>2.201834862385321</v>
+        <v>2.169642857142857</v>
       </c>
       <c r="P237" t="n">
-        <v>0.2110091743119266</v>
+        <v>0.2053571428571428</v>
       </c>
     </row>
     <row r="238">
@@ -13802,40 +13802,40 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2.178571428571428</v>
+        <v>2.123595505617978</v>
       </c>
       <c r="F239" t="n">
-        <v>1.571428571428571</v>
+        <v>1.51685393258427</v>
       </c>
       <c r="G239" t="n">
-        <v>3.095238095238095</v>
+        <v>3</v>
       </c>
       <c r="H239" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.2359550561797753</v>
       </c>
       <c r="I239" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="K239" t="n">
-        <v>0.02380952380952381</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="L239" t="n">
-        <v>2.738095238095238</v>
+        <v>2.707865168539326</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1547619047619048</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="O239" t="n">
-        <v>1.69047619047619</v>
+        <v>1.651685393258427</v>
       </c>
       <c r="P239" t="n">
-        <v>0.4047619047619048</v>
+        <v>0.3932584269662922</v>
       </c>
     </row>
     <row r="240">
@@ -13858,13 +13858,13 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>0.06</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -13873,22 +13873,22 @@
         <v>0</v>
       </c>
       <c r="J240" t="n">
-        <v>0.42</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="K240" t="n">
         <v>0</v>
       </c>
       <c r="L240" t="n">
-        <v>0.26</v>
+        <v>0.2452830188679245</v>
       </c>
       <c r="M240" t="n">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="N240" t="n">
-        <v>0.04</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="O240" t="n">
-        <v>0.06</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="P240" t="n">
         <v>0</v>
@@ -13914,40 +13914,40 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>1.536585365853659</v>
+        <v>1.578125</v>
       </c>
       <c r="F241" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.2734375</v>
       </c>
       <c r="G241" t="n">
-        <v>1.91869918699187</v>
+        <v>1.96875</v>
       </c>
       <c r="H241" t="n">
-        <v>0.4471544715447154</v>
+        <v>0.4765625</v>
       </c>
       <c r="I241" t="n">
-        <v>0.06504065040650407</v>
+        <v>0.0703125</v>
       </c>
       <c r="J241" t="n">
-        <v>3.422764227642277</v>
+        <v>3.5</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2113821138211382</v>
+        <v>0.2265625</v>
       </c>
       <c r="L241" t="n">
-        <v>3.284552845528455</v>
+        <v>3.3515625</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.2578125</v>
       </c>
       <c r="N241" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.34375</v>
       </c>
       <c r="O241" t="n">
-        <v>1.300813008130081</v>
+        <v>1.34375</v>
       </c>
       <c r="P241" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.1640625</v>
       </c>
     </row>
     <row r="242">
@@ -13970,40 +13970,40 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1.357142857142857</v>
+        <v>1.217948717948718</v>
       </c>
       <c r="F242" t="n">
-        <v>0.8714285714285714</v>
+        <v>0.782051282051282</v>
       </c>
       <c r="G242" t="n">
-        <v>1.942857142857143</v>
+        <v>1.743589743589744</v>
       </c>
       <c r="H242" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="I242" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="J242" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="K242" t="n">
         <v>0</v>
       </c>
       <c r="L242" t="n">
-        <v>1.342857142857143</v>
+        <v>1.205128205128205</v>
       </c>
       <c r="M242" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="N242" t="n">
-        <v>0.04285714285714286</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="O242" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="P242" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="243">
@@ -14138,40 +14138,40 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>2.139705882352941</v>
+        <v>2.152777777777778</v>
       </c>
       <c r="F245" t="n">
-        <v>0.8897058823529411</v>
+        <v>0.8541666666666666</v>
       </c>
       <c r="G245" t="n">
-        <v>2.279411764705882</v>
+        <v>2.263888888888889</v>
       </c>
       <c r="H245" t="n">
-        <v>0.4485294117647059</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="I245" t="n">
-        <v>0.1397058823529412</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02205882352941177</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K245" t="n">
         <v>0</v>
       </c>
       <c r="L245" t="n">
-        <v>4.463235294117647</v>
+        <v>4.548611111111111</v>
       </c>
       <c r="M245" t="n">
-        <v>0.3455882352941176</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="N245" t="n">
-        <v>0.4558823529411765</v>
+        <v>0.4930555555555556</v>
       </c>
       <c r="O245" t="n">
-        <v>1.889705882352941</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="P245" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.1180555555555556</v>
       </c>
     </row>
     <row r="246">
@@ -14194,19 +14194,19 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>1.014285714285714</v>
+        <v>0.9102564102564102</v>
       </c>
       <c r="F246" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="H246" t="n">
-        <v>0.2428571428571429</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="I246" t="n">
-        <v>0.05714285714285714</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="J246" t="n">
         <v>0</v>
@@ -14215,19 +14215,19 @@
         <v>0</v>
       </c>
       <c r="L246" t="n">
-        <v>1.8</v>
+        <v>1.615384615384615</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2285714285714286</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="O246" t="n">
-        <v>0.8142857142857143</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="P246" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="247">
@@ -14306,31 +14306,31 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="F248" t="n">
-        <v>-0.1129032258064516</v>
+        <v>-0.1076923076923077</v>
       </c>
       <c r="G248" t="n">
-        <v>0.5645161290322581</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="H248" t="n">
-        <v>0.1129032258064516</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="I248" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="K248" t="n">
         <v>0</v>
       </c>
       <c r="L248" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="M248" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="N248" t="n">
         <v>0</v>
@@ -14365,16 +14365,16 @@
         <v>3.875</v>
       </c>
       <c r="F249" t="n">
-        <v>2.223214285714286</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="G249" t="n">
-        <v>2.919642857142857</v>
+        <v>3.041666666666667</v>
       </c>
       <c r="H249" t="n">
-        <v>0.7946428571428571</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="I249" t="n">
-        <v>0.2767857142857143</v>
+        <v>0.275</v>
       </c>
       <c r="J249" t="n">
         <v>0</v>
@@ -14383,19 +14383,19 @@
         <v>0</v>
       </c>
       <c r="L249" t="n">
-        <v>5.919642857142857</v>
+        <v>6.016666666666667</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2767857142857143</v>
+        <v>0.3</v>
       </c>
       <c r="N249" t="n">
-        <v>0.5803571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="O249" t="n">
-        <v>3.303571428571428</v>
+        <v>3.325</v>
       </c>
       <c r="P249" t="n">
-        <v>0.2946428571428572</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="250">
@@ -14418,40 +14418,40 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1.888</v>
+        <v>1.946153846153846</v>
       </c>
       <c r="F250" t="n">
-        <v>0.872</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="G250" t="n">
-        <v>1.24</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="H250" t="n">
-        <v>0.392</v>
+        <v>0.3923076923076923</v>
       </c>
       <c r="I250" t="n">
-        <v>0.04</v>
+        <v>0.04615384615384616</v>
       </c>
       <c r="J250" t="n">
-        <v>0.032</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K250" t="n">
-        <v>0.008</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L250" t="n">
-        <v>3.384</v>
+        <v>3.484615384615385</v>
       </c>
       <c r="M250" t="n">
-        <v>0.32</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="N250" t="n">
-        <v>0.296</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="O250" t="n">
-        <v>1.664</v>
+        <v>1.707692307692308</v>
       </c>
       <c r="P250" t="n">
-        <v>0.184</v>
+        <v>0.1923076923076923</v>
       </c>
     </row>
     <row r="251">
@@ -14474,40 +14474,40 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>4.051546391752577</v>
+        <v>3.93</v>
       </c>
       <c r="F251" t="n">
-        <v>1.690721649484536</v>
+        <v>1.64</v>
       </c>
       <c r="G251" t="n">
-        <v>3.268041237113402</v>
+        <v>3.17</v>
       </c>
       <c r="H251" t="n">
-        <v>0.9484536082474226</v>
+        <v>0.92</v>
       </c>
       <c r="I251" t="n">
-        <v>0.5154639175257731</v>
+        <v>0.5</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04123711340206185</v>
+        <v>0.04</v>
       </c>
       <c r="K251" t="n">
-        <v>0.01030927835051546</v>
+        <v>0.01</v>
       </c>
       <c r="L251" t="n">
-        <v>6.587628865979381</v>
+        <v>6.39</v>
       </c>
       <c r="M251" t="n">
-        <v>0.7422680412371134</v>
+        <v>0.72</v>
       </c>
       <c r="N251" t="n">
-        <v>0.6597938144329897</v>
+        <v>0.64</v>
       </c>
       <c r="O251" t="n">
-        <v>3.391752577319588</v>
+        <v>3.29</v>
       </c>
       <c r="P251" t="n">
-        <v>0.1443298969072165</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="252">
@@ -14530,40 +14530,40 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>2.743362831858407</v>
+        <v>2.724137931034483</v>
       </c>
       <c r="F252" t="n">
-        <v>0.8849557522123894</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="G252" t="n">
-        <v>3.327433628318584</v>
+        <v>3.301724137931035</v>
       </c>
       <c r="H252" t="n">
-        <v>0.4867256637168141</v>
+        <v>0.4913793103448276</v>
       </c>
       <c r="I252" t="n">
-        <v>0.1504424778761062</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="J252" t="n">
-        <v>5.672566371681416</v>
+        <v>5.568965517241379</v>
       </c>
       <c r="K252" t="n">
-        <v>0.5309734513274337</v>
+        <v>0.5258620689655172</v>
       </c>
       <c r="L252" t="n">
-        <v>4.663716814159292</v>
+        <v>4.620689655172414</v>
       </c>
       <c r="M252" t="n">
-        <v>0.4247787610619469</v>
+        <v>0.4396551724137931</v>
       </c>
       <c r="N252" t="n">
-        <v>0.415929203539823</v>
+        <v>0.4051724137931034</v>
       </c>
       <c r="O252" t="n">
-        <v>2.274336283185841</v>
+        <v>2.241379310344827</v>
       </c>
       <c r="P252" t="n">
-        <v>0.3185840707964602</v>
+        <v>0.3275862068965517</v>
       </c>
     </row>
     <row r="253">
@@ -14586,19 +14586,19 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>1.129032258064516</v>
+        <v>1.138461538461538</v>
       </c>
       <c r="F253" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="G253" t="n">
-        <v>1.209677419354839</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
-        <v>0.3387096774193548</v>
+        <v>0.3230769230769231</v>
       </c>
       <c r="I253" t="n">
-        <v>0.06451612903225806</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="J253" t="n">
         <v>0</v>
@@ -14607,19 +14607,19 @@
         <v>0</v>
       </c>
       <c r="L253" t="n">
-        <v>2.758064516129032</v>
+        <v>2.723076923076923</v>
       </c>
       <c r="M253" t="n">
-        <v>0.2741935483870968</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="N253" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="O253" t="n">
-        <v>0.967741935483871</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="P253" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="254">
@@ -14642,40 +14642,40 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>1.682539682539683</v>
+        <v>1.633587786259542</v>
       </c>
       <c r="F254" t="n">
-        <v>1.103174603174603</v>
+        <v>1.068702290076336</v>
       </c>
       <c r="G254" t="n">
-        <v>1.515873015873016</v>
+        <v>1.465648854961832</v>
       </c>
       <c r="H254" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1145038167938931</v>
       </c>
       <c r="I254" t="n">
-        <v>0.01587301587301587</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="J254" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.04580152671755725</v>
       </c>
       <c r="K254" t="n">
-        <v>0.007936507936507936</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="L254" t="n">
-        <v>3.182539682539682</v>
+        <v>3.122137404580153</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1984126984126984</v>
+        <v>0.1908396946564886</v>
       </c>
       <c r="N254" t="n">
-        <v>0.2619047619047619</v>
+        <v>0.2519083969465649</v>
       </c>
       <c r="O254" t="n">
-        <v>1.476190476190476</v>
+        <v>1.435114503816794</v>
       </c>
       <c r="P254" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.183206106870229</v>
       </c>
     </row>
     <row r="255">
@@ -14813,7 +14813,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>-0.3309352517985611</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -14825,13 +14825,13 @@
         <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>4.151079136690647</v>
+        <v>4.360544217687075</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3309352517985611</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L257" t="n">
-        <v>0.007194244604316547</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="M257" t="n">
         <v>0</v>
@@ -14981,7 +14981,7 @@
         <v>0</v>
       </c>
       <c r="F260" t="n">
-        <v>-0.1954887218045113</v>
+        <v>-0.1911764705882353</v>
       </c>
       <c r="G260" t="n">
         <v>0</v>
@@ -14993,10 +14993,10 @@
         <v>0</v>
       </c>
       <c r="J260" t="n">
-        <v>4.496240601503759</v>
+        <v>4.463235294117647</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1954887218045113</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="L260" t="n">
         <v>0</v>
@@ -15090,40 +15090,40 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>0.25</v>
+        <v>0.2831858407079646</v>
       </c>
       <c r="F262" t="n">
-        <v>-0.2222222222222222</v>
+        <v>-0.1946902654867257</v>
       </c>
       <c r="G262" t="n">
-        <v>2.277777777777778</v>
+        <v>2.398230088495575</v>
       </c>
       <c r="H262" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3716814159292036</v>
       </c>
       <c r="I262" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.1504424778761062</v>
       </c>
       <c r="K262" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="L262" t="n">
-        <v>0.4537037037037037</v>
+        <v>0.4513274336283186</v>
       </c>
       <c r="M262" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.05309734513274336</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02777777777777778</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="P262" t="n">
-        <v>0.06481481481481481</v>
+        <v>0.07964601769911504</v>
       </c>
     </row>
     <row r="263">
@@ -15146,40 +15146,40 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="F263" t="n">
-        <v>-0.1140350877192982</v>
+        <v>-0.1538461538461539</v>
       </c>
       <c r="G263" t="n">
-        <v>1.824561403508772</v>
+        <v>1.871794871794872</v>
       </c>
       <c r="H263" t="n">
-        <v>0.3859649122807017</v>
+        <v>0.3931623931623932</v>
       </c>
       <c r="I263" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="J263" t="n">
-        <v>0.2368421052631579</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K263" t="n">
-        <v>0.01754385964912281</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="L263" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7008547008547008</v>
       </c>
       <c r="M263" t="n">
-        <v>0.07017543859649122</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06140350877192982</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="O263" t="n">
-        <v>0.2894736842105263</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="P263" t="n">
-        <v>0.1140350877192982</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="264">
@@ -15202,40 +15202,40 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>1.695652173913043</v>
+        <v>1.730496453900709</v>
       </c>
       <c r="F264" t="n">
-        <v>0.2246376811594203</v>
+        <v>0.2056737588652482</v>
       </c>
       <c r="G264" t="n">
-        <v>2.318840579710145</v>
+        <v>2.347517730496454</v>
       </c>
       <c r="H264" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3546099290780142</v>
       </c>
       <c r="I264" t="n">
-        <v>0.1159420289855072</v>
+        <v>0.1205673758865248</v>
       </c>
       <c r="J264" t="n">
-        <v>4.666666666666667</v>
+        <v>4.730496453900709</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3188405797101449</v>
+        <v>0.3262411347517731</v>
       </c>
       <c r="L264" t="n">
-        <v>3.956521739130435</v>
+        <v>4.01418439716312</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="N264" t="n">
-        <v>0.4855072463768116</v>
+        <v>0.5035460992907801</v>
       </c>
       <c r="O264" t="n">
-        <v>1.427536231884058</v>
+        <v>1.453900709219858</v>
       </c>
       <c r="P264" t="n">
-        <v>0.1521739130434783</v>
+        <v>0.1560283687943262</v>
       </c>
     </row>
     <row r="265">
@@ -15258,40 +15258,40 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.6161616161616161</v>
       </c>
       <c r="F265" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="G265" t="n">
-        <v>1.404255319148936</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="H265" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I265" t="n">
-        <v>0.03191489361702127</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="J265" t="n">
-        <v>2.553191489361702</v>
+        <v>2.494949494949495</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="L265" t="n">
-        <v>1.414893617021277</v>
+        <v>1.353535353535354</v>
       </c>
       <c r="M265" t="n">
-        <v>0.1063829787234043</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="N265" t="n">
-        <v>0.1063829787234043</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="O265" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="P265" t="n">
-        <v>0.05319148936170213</v>
+        <v>0.0505050505050505</v>
       </c>
     </row>
     <row r="266">
@@ -15314,40 +15314,40 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>1.561538461538462</v>
+        <v>1.57037037037037</v>
       </c>
       <c r="F266" t="n">
-        <v>1.192307692307692</v>
+        <v>1.2</v>
       </c>
       <c r="G266" t="n">
-        <v>3.015384615384615</v>
+        <v>2.985185185185185</v>
       </c>
       <c r="H266" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="I266" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="J266" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="K266" t="n">
-        <v>0.007692307692307693</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="L266" t="n">
-        <v>1.6</v>
+        <v>1.644444444444444</v>
       </c>
       <c r="M266" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.05185185185185185</v>
       </c>
       <c r="N266" t="n">
-        <v>0.06923076923076923</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="O266" t="n">
-        <v>0.823076923076923</v>
+        <v>0.8222222222222222</v>
       </c>
       <c r="P266" t="n">
-        <v>0.5538461538461539</v>
+        <v>0.5703703703703704</v>
       </c>
     </row>
     <row r="267">
@@ -15482,10 +15482,10 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>0.916030534351145</v>
+        <v>0.9236641221374046</v>
       </c>
       <c r="F269" t="n">
-        <v>0.1526717557251908</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="G269" t="n">
         <v>0.7022900763358778</v>
@@ -15515,7 +15515,7 @@
         <v>0.7938931297709924</v>
       </c>
       <c r="P269" t="n">
-        <v>0.1068702290076336</v>
+        <v>0.1145038167938931</v>
       </c>
     </row>
     <row r="270">
@@ -15538,40 +15538,40 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>1.116883116883117</v>
+        <v>1.095541401273885</v>
       </c>
       <c r="F270" t="n">
-        <v>0.487012987012987</v>
+        <v>0.4777070063694268</v>
       </c>
       <c r="G270" t="n">
-        <v>1.571428571428571</v>
+        <v>1.554140127388535</v>
       </c>
       <c r="H270" t="n">
-        <v>0.3376623376623377</v>
+        <v>0.3312101910828025</v>
       </c>
       <c r="I270" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08917197452229299</v>
       </c>
       <c r="J270" t="n">
-        <v>0.02597402597402598</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
       </c>
       <c r="L270" t="n">
-        <v>1.824675324675325</v>
+        <v>1.789808917197452</v>
       </c>
       <c r="M270" t="n">
-        <v>0.1493506493506493</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="N270" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="O270" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8471337579617835</v>
       </c>
       <c r="P270" t="n">
-        <v>0.1623376623376623</v>
+        <v>0.1592356687898089</v>
       </c>
     </row>
     <row r="271">
@@ -15594,40 +15594,40 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>1.338461538461538</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="F271" t="n">
-        <v>1</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="G271" t="n">
-        <v>1.923076923076923</v>
+        <v>1.885714285714286</v>
       </c>
       <c r="H271" t="n">
-        <v>0.2</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="I271" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="J271" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K271" t="n">
         <v>0</v>
       </c>
       <c r="L271" t="n">
-        <v>1.769230769230769</v>
+        <v>1.742857142857143</v>
       </c>
       <c r="M271" t="n">
-        <v>0.04615384615384616</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="N271" t="n">
-        <v>0.09230769230769231</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="O271" t="n">
-        <v>1.046153846153846</v>
+        <v>1.014285714285714</v>
       </c>
       <c r="P271" t="n">
-        <v>0.2615384615384616</v>
+        <v>0.2428571428571429</v>
       </c>
     </row>
     <row r="272">
@@ -15762,40 +15762,40 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>0.9585798816568047</v>
+        <v>0.9593023255813954</v>
       </c>
       <c r="F274" t="n">
-        <v>0.378698224852071</v>
+        <v>0.3662790697674418</v>
       </c>
       <c r="G274" t="n">
-        <v>1.621301775147929</v>
+        <v>1.627906976744186</v>
       </c>
       <c r="H274" t="n">
-        <v>0.1952662721893491</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="I274" t="n">
-        <v>0.04733727810650887</v>
+        <v>0.05232558139534884</v>
       </c>
       <c r="J274" t="n">
-        <v>2.053254437869823</v>
+        <v>2.133720930232558</v>
       </c>
       <c r="K274" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="L274" t="n">
-        <v>1.769230769230769</v>
+        <v>1.784883720930233</v>
       </c>
       <c r="M274" t="n">
-        <v>0.1656804733727811</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="N274" t="n">
-        <v>0.1420118343195266</v>
+        <v>0.1453488372093023</v>
       </c>
       <c r="O274" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="P274" t="n">
-        <v>0.2189349112426036</v>
+        <v>0.2209302325581395</v>
       </c>
     </row>
     <row r="275">
@@ -15818,40 +15818,40 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>0.7903225806451613</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="F275" t="n">
-        <v>0.3225806451612903</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="G275" t="n">
-        <v>2.790322580645161</v>
+        <v>2.861538461538462</v>
       </c>
       <c r="H275" t="n">
-        <v>0.3064516129032258</v>
+        <v>0.2923076923076923</v>
       </c>
       <c r="I275" t="n">
-        <v>0.1129032258064516</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="J275" t="n">
-        <v>0.09677419354838709</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="K275" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="L275" t="n">
-        <v>1.354838709677419</v>
+        <v>1.353846153846154</v>
       </c>
       <c r="M275" t="n">
-        <v>0.1290322580645161</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="N275" t="n">
-        <v>0.01612903225806452</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="O275" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="P275" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.2153846153846154</v>
       </c>
     </row>
     <row r="276">
@@ -15874,40 +15874,40 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>1.178571428571429</v>
+        <v>1.137931034482759</v>
       </c>
       <c r="F276" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="G276" t="n">
-        <v>2.190476190476191</v>
+        <v>2.114942528735632</v>
       </c>
       <c r="H276" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="I276" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="J276" t="n">
-        <v>0.119047619047619</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="K276" t="n">
         <v>0</v>
       </c>
       <c r="L276" t="n">
-        <v>1.285714285714286</v>
+        <v>1.241379310344828</v>
       </c>
       <c r="M276" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="N276" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="O276" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="P276" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4597701149425287</v>
       </c>
     </row>
     <row r="277">
@@ -15930,40 +15930,40 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="F277" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1868131868131868</v>
       </c>
       <c r="G277" t="n">
-        <v>3.102272727272727</v>
+        <v>3.054945054945055</v>
       </c>
       <c r="H277" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="I277" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="J277" t="n">
-        <v>0.1022727272727273</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="K277" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="L277" t="n">
-        <v>0.3522727272727273</v>
+        <v>0.3406593406593407</v>
       </c>
       <c r="M277" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="N277" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="O277" t="n">
-        <v>0.1590909090909091</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="P277" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="278">
@@ -16101,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>-0.2477064220183486</v>
+        <v>-0.25</v>
       </c>
       <c r="G280" t="n">
         <v>0</v>
@@ -16113,13 +16113,13 @@
         <v>0</v>
       </c>
       <c r="J280" t="n">
-        <v>4.119266055045872</v>
+        <v>4.151785714285714</v>
       </c>
       <c r="K280" t="n">
-        <v>0.2477064220183486</v>
+        <v>0.25</v>
       </c>
       <c r="L280" t="n">
-        <v>0.009174311926605505</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="M280" t="n">
         <v>0</v>
@@ -16154,40 +16154,40 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="F281" t="n">
-        <v>0.05128205128205128</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G281" t="n">
-        <v>2.528205128205128</v>
+        <v>2.545454545454545</v>
       </c>
       <c r="H281" t="n">
-        <v>0.4461538461538462</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="I281" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2676767676767677</v>
       </c>
       <c r="J281" t="n">
-        <v>0.4512820512820513</v>
+        <v>0.4494949494949495</v>
       </c>
       <c r="K281" t="n">
-        <v>0.03076923076923077</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="L281" t="n">
-        <v>0.4461538461538462</v>
+        <v>0.4595959595959596</v>
       </c>
       <c r="M281" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="N281" t="n">
-        <v>0.02051282051282051</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="O281" t="n">
-        <v>0.1435897435897436</v>
+        <v>0.1565656565656566</v>
       </c>
       <c r="P281" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="282">
@@ -16210,40 +16210,40 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>2.244604316546762</v>
+        <v>2.197278911564626</v>
       </c>
       <c r="F282" t="n">
-        <v>0.5755395683453237</v>
+        <v>0.5782312925170068</v>
       </c>
       <c r="G282" t="n">
-        <v>2.654676258992806</v>
+        <v>2.63265306122449</v>
       </c>
       <c r="H282" t="n">
-        <v>0.5539568345323741</v>
+        <v>0.5374149659863946</v>
       </c>
       <c r="I282" t="n">
-        <v>0.237410071942446</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="J282" t="n">
-        <v>6.043165467625899</v>
+        <v>5.972789115646258</v>
       </c>
       <c r="K282" t="n">
-        <v>0.3237410071942446</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L282" t="n">
-        <v>4.064748201438849</v>
+        <v>3.979591836734694</v>
       </c>
       <c r="M282" t="n">
-        <v>0.381294964028777</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="N282" t="n">
-        <v>0.4100719424460432</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="O282" t="n">
-        <v>1.863309352517986</v>
+        <v>1.82312925170068</v>
       </c>
       <c r="P282" t="n">
-        <v>0.1438848920863309</v>
+        <v>0.1360544217687075</v>
       </c>
     </row>
     <row r="283">
@@ -16266,40 +16266,40 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>3.17741935483871</v>
+        <v>3.138461538461538</v>
       </c>
       <c r="F283" t="n">
-        <v>0.4677419354838709</v>
+        <v>0.4</v>
       </c>
       <c r="G283" t="n">
-        <v>2.693548387096774</v>
+        <v>2.707692307692308</v>
       </c>
       <c r="H283" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9538461538461539</v>
       </c>
       <c r="I283" t="n">
-        <v>0.1935483870967742</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="J283" t="n">
-        <v>7.935483870967742</v>
+        <v>7.784615384615384</v>
       </c>
       <c r="K283" t="n">
-        <v>0.4677419354838709</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L283" t="n">
-        <v>7.290322580645161</v>
+        <v>7.184615384615385</v>
       </c>
       <c r="M283" t="n">
-        <v>0.4677419354838709</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="N283" t="n">
-        <v>0.8548387096774194</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="O283" t="n">
-        <v>2.82258064516129</v>
+        <v>2.8</v>
       </c>
       <c r="P283" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="284">
@@ -16378,40 +16378,40 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>1.744186046511628</v>
+        <v>1.781021897810219</v>
       </c>
       <c r="F285" t="n">
-        <v>0.7209302325581395</v>
+        <v>0.7153284671532847</v>
       </c>
       <c r="G285" t="n">
-        <v>2.325581395348837</v>
+        <v>2.467153284671533</v>
       </c>
       <c r="H285" t="n">
-        <v>0.3953488372093023</v>
+        <v>0.4160583941605839</v>
       </c>
       <c r="I285" t="n">
-        <v>0.1317829457364341</v>
+        <v>0.1386861313868613</v>
       </c>
       <c r="J285" t="n">
-        <v>3.093023255813954</v>
+        <v>3.218978102189781</v>
       </c>
       <c r="K285" t="n">
-        <v>0.1317829457364341</v>
+        <v>0.1678832116788321</v>
       </c>
       <c r="L285" t="n">
-        <v>2.976744186046512</v>
+        <v>3.021897810218978</v>
       </c>
       <c r="M285" t="n">
-        <v>0.248062015503876</v>
+        <v>0.2335766423357664</v>
       </c>
       <c r="N285" t="n">
-        <v>0.248062015503876</v>
+        <v>0.2481751824817518</v>
       </c>
       <c r="O285" t="n">
-        <v>1.403100775193798</v>
+        <v>1.445255474452555</v>
       </c>
       <c r="P285" t="n">
-        <v>0.2093023255813954</v>
+        <v>0.1970802919708029</v>
       </c>
     </row>
     <row r="286">
@@ -16546,40 +16546,40 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>1.901639344262295</v>
+        <v>1.921875</v>
       </c>
       <c r="F288" t="n">
-        <v>1.573770491803279</v>
+        <v>1.59375</v>
       </c>
       <c r="G288" t="n">
-        <v>2.262295081967213</v>
+        <v>2.359375</v>
       </c>
       <c r="H288" t="n">
-        <v>0.180327868852459</v>
+        <v>0.171875</v>
       </c>
       <c r="I288" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.03125</v>
       </c>
       <c r="J288" t="n">
-        <v>0.180327868852459</v>
+        <v>0.171875</v>
       </c>
       <c r="K288" t="n">
         <v>0</v>
       </c>
       <c r="L288" t="n">
-        <v>2.131147540983607</v>
+        <v>2.140625</v>
       </c>
       <c r="M288" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.046875</v>
       </c>
       <c r="N288" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.109375</v>
       </c>
       <c r="O288" t="n">
-        <v>1.409836065573771</v>
+        <v>1.421875</v>
       </c>
       <c r="P288" t="n">
-        <v>0.459016393442623</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="289">
@@ -16602,40 +16602,40 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>2.19672131147541</v>
+        <v>2.203125</v>
       </c>
       <c r="F289" t="n">
-        <v>1.229508196721312</v>
+        <v>1.203125</v>
       </c>
       <c r="G289" t="n">
-        <v>3.131147540983607</v>
+        <v>3.09375</v>
       </c>
       <c r="H289" t="n">
-        <v>0.6065573770491803</v>
+        <v>0.640625</v>
       </c>
       <c r="I289" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.140625</v>
       </c>
       <c r="J289" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.140625</v>
       </c>
       <c r="K289" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.015625</v>
       </c>
       <c r="L289" t="n">
-        <v>2.573770491803279</v>
+        <v>2.515625</v>
       </c>
       <c r="M289" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.1875</v>
       </c>
       <c r="N289" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.15625</v>
       </c>
       <c r="O289" t="n">
-        <v>1.573770491803279</v>
+        <v>1.546875</v>
       </c>
       <c r="P289" t="n">
-        <v>0.4754098360655737</v>
+        <v>0.515625</v>
       </c>
     </row>
     <row r="290">
@@ -16714,40 +16714,40 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>0.2947368421052631</v>
+        <v>0.32</v>
       </c>
       <c r="F291" t="n">
-        <v>-0.02105263157894737</v>
+        <v>-0.01</v>
       </c>
       <c r="G291" t="n">
-        <v>2.473684210526316</v>
+        <v>2.57</v>
       </c>
       <c r="H291" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.27</v>
       </c>
       <c r="I291" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J291" t="n">
-        <v>0.08421052631578947</v>
+        <v>0.1</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L291" t="n">
-        <v>0.3052631578947368</v>
+        <v>0.3</v>
       </c>
       <c r="M291" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="N291" t="n">
         <v>0</v>
       </c>
       <c r="O291" t="n">
-        <v>0.09473684210526316</v>
+        <v>0.1</v>
       </c>
       <c r="P291" t="n">
-        <v>0.1473684210526316</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="292">
@@ -16770,40 +16770,40 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>4.215384615384616</v>
+        <v>4.171428571428572</v>
       </c>
       <c r="F292" t="n">
-        <v>2.292307692307692</v>
+        <v>2.185714285714285</v>
       </c>
       <c r="G292" t="n">
-        <v>3.646153846153846</v>
+        <v>3.628571428571429</v>
       </c>
       <c r="H292" t="n">
-        <v>0.5692307692307692</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I292" t="n">
-        <v>0.2461538461538462</v>
+        <v>0.2428571428571429</v>
       </c>
       <c r="J292" t="n">
-        <v>5.030769230769231</v>
+        <v>5.1</v>
       </c>
       <c r="K292" t="n">
-        <v>0.2769230769230769</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="L292" t="n">
-        <v>7.461538461538462</v>
+        <v>7.542857142857143</v>
       </c>
       <c r="M292" t="n">
-        <v>0.4153846153846154</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="N292" t="n">
-        <v>0.6615384615384615</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="O292" t="n">
-        <v>3.615384615384615</v>
+        <v>3.585714285714286</v>
       </c>
       <c r="P292" t="n">
-        <v>0.3538461538461539</v>
+        <v>0.3428571428571429</v>
       </c>
     </row>
     <row r="293">
@@ -16826,40 +16826,40 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>2.184782608695652</v>
+        <v>2.2</v>
       </c>
       <c r="F293" t="n">
-        <v>1.195652173913043</v>
+        <v>1.178947368421053</v>
       </c>
       <c r="G293" t="n">
-        <v>1.83695652173913</v>
+        <v>1.863157894736842</v>
       </c>
       <c r="H293" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="I293" t="n">
-        <v>0.09782608695652174</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="J293" t="n">
-        <v>0.04347826086956522</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="K293" t="n">
         <v>0</v>
       </c>
       <c r="L293" t="n">
-        <v>4.369565217391305</v>
+        <v>4.4</v>
       </c>
       <c r="M293" t="n">
-        <v>0.4021739130434783</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="N293" t="n">
-        <v>0.3260869565217391</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="O293" t="n">
-        <v>1.902173913043478</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="P293" t="n">
-        <v>0.1847826086956522</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="294">
@@ -16938,40 +16938,40 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>3.01063829787234</v>
+        <v>3.07070707070707</v>
       </c>
       <c r="F295" t="n">
-        <v>1.404255319148936</v>
+        <v>1.404040404040404</v>
       </c>
       <c r="G295" t="n">
-        <v>2.265957446808511</v>
+        <v>2.242424242424242</v>
       </c>
       <c r="H295" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I295" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="J295" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.08080808080808081</v>
       </c>
       <c r="K295" t="n">
-        <v>0.01063829787234043</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="L295" t="n">
-        <v>5.24468085106383</v>
+        <v>5.414141414141414</v>
       </c>
       <c r="M295" t="n">
-        <v>0.5531914893617021</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="N295" t="n">
-        <v>0.4893617021276596</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="O295" t="n">
-        <v>2.648936170212766</v>
+        <v>2.707070707070707</v>
       </c>
       <c r="P295" t="n">
-        <v>0.2340425531914894</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="296">
@@ -17050,40 +17050,40 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>2.030534351145038</v>
+        <v>2.071942446043165</v>
       </c>
       <c r="F297" t="n">
-        <v>1.229007633587786</v>
+        <v>1.230215827338129</v>
       </c>
       <c r="G297" t="n">
-        <v>3.083969465648855</v>
+        <v>3.151079136690647</v>
       </c>
       <c r="H297" t="n">
-        <v>0.4885496183206107</v>
+        <v>0.5035971223021583</v>
       </c>
       <c r="I297" t="n">
-        <v>0.1755725190839695</v>
+        <v>0.1798561151079137</v>
       </c>
       <c r="J297" t="n">
-        <v>0.09923664122137404</v>
+        <v>0.1223021582733813</v>
       </c>
       <c r="K297" t="n">
-        <v>0.01526717557251908</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="L297" t="n">
-        <v>2.381679389312977</v>
+        <v>2.410071942446043</v>
       </c>
       <c r="M297" t="n">
-        <v>0.1755725190839695</v>
+        <v>0.1798561151079137</v>
       </c>
       <c r="N297" t="n">
-        <v>0.1221374045801527</v>
+        <v>0.1438848920863309</v>
       </c>
       <c r="O297" t="n">
-        <v>1.480916030534351</v>
+        <v>1.482014388489209</v>
       </c>
       <c r="P297" t="n">
-        <v>0.3740458015267176</v>
+        <v>0.4100719424460432</v>
       </c>
     </row>
     <row r="298">
@@ -17106,40 +17106,40 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>0.09803921568627451</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="F298" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="G298" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3238095238095238</v>
       </c>
       <c r="H298" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="K298" t="n">
         <v>0</v>
       </c>
       <c r="L298" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="M298" t="n">
-        <v>0.009803921568627451</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="N298" t="n">
         <v>0</v>
       </c>
       <c r="O298" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P298" t="n">
-        <v>0.0392156862745098</v>
+        <v>0.0380952380952381</v>
       </c>
     </row>
     <row r="299">
@@ -17162,40 +17162,40 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>3.107913669064748</v>
+        <v>2.965986394557823</v>
       </c>
       <c r="F299" t="n">
-        <v>1.827338129496403</v>
+        <v>1.727891156462585</v>
       </c>
       <c r="G299" t="n">
-        <v>2.769784172661871</v>
+        <v>2.673469387755102</v>
       </c>
       <c r="H299" t="n">
-        <v>0.1798561151079137</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="I299" t="n">
-        <v>0.1223021582733813</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="J299" t="n">
-        <v>4.16546762589928</v>
+        <v>4.074829931972789</v>
       </c>
       <c r="K299" t="n">
-        <v>0.3381294964028777</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L299" t="n">
-        <v>6.057553956834532</v>
+        <v>5.863945578231292</v>
       </c>
       <c r="M299" t="n">
-        <v>0.316546762589928</v>
+        <v>0.2993197278911565</v>
       </c>
       <c r="N299" t="n">
-        <v>0.4460431654676259</v>
+        <v>0.4217687074829932</v>
       </c>
       <c r="O299" t="n">
-        <v>2.863309352517986</v>
+        <v>2.73469387755102</v>
       </c>
       <c r="P299" t="n">
-        <v>0.1223021582733813</v>
+        <v>0.1156462585034014</v>
       </c>
     </row>
     <row r="300">
@@ -17218,40 +17218,40 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>1.032786885245902</v>
+        <v>1.203125</v>
       </c>
       <c r="F300" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.59375</v>
       </c>
       <c r="G300" t="n">
-        <v>1.278688524590164</v>
+        <v>1.453125</v>
       </c>
       <c r="H300" t="n">
-        <v>0.180327868852459</v>
+        <v>0.203125</v>
       </c>
       <c r="I300" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.15625</v>
       </c>
       <c r="J300" t="n">
-        <v>2.540983606557377</v>
+        <v>2.796875</v>
       </c>
       <c r="K300" t="n">
-        <v>0.2131147540983606</v>
+        <v>0.203125</v>
       </c>
       <c r="L300" t="n">
-        <v>1.967213114754098</v>
+        <v>2.0625</v>
       </c>
       <c r="M300" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.03125</v>
       </c>
       <c r="N300" t="n">
-        <v>0.180327868852459</v>
+        <v>0.171875</v>
       </c>
       <c r="O300" t="n">
-        <v>0.8688524590163934</v>
+        <v>0.9375</v>
       </c>
       <c r="P300" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.109375</v>
       </c>
     </row>
     <row r="301">
@@ -17330,40 +17330,40 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>2.322033898305085</v>
+        <v>2.32258064516129</v>
       </c>
       <c r="F302" t="n">
-        <v>0.1864406779661017</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="G302" t="n">
-        <v>1.694915254237288</v>
+        <v>1.725806451612903</v>
       </c>
       <c r="H302" t="n">
-        <v>0.7966101694915254</v>
+        <v>0.7580645161290323</v>
       </c>
       <c r="I302" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="J302" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="K302" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="L302" t="n">
-        <v>5.576271186440678</v>
+        <v>5.661290322580645</v>
       </c>
       <c r="M302" t="n">
-        <v>0.5423728813559322</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="N302" t="n">
-        <v>0.7796610169491526</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="O302" t="n">
-        <v>2.23728813559322</v>
+        <v>2.241935483870968</v>
       </c>
       <c r="P302" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.04838709677419355</v>
       </c>
     </row>
     <row r="303">
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="F303" t="n">
-        <v>-0.1954887218045113</v>
+        <v>-0.2127659574468085</v>
       </c>
       <c r="G303" t="n">
         <v>0</v>
@@ -17401,10 +17401,10 @@
         <v>0</v>
       </c>
       <c r="J303" t="n">
-        <v>3.586466165413534</v>
+        <v>3.652482269503546</v>
       </c>
       <c r="K303" t="n">
-        <v>0.1954887218045113</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="L303" t="n">
         <v>0</v>

--- a/PlayerPerformances.xlsx
+++ b/PlayerPerformances.xlsx
@@ -19118,7 +19118,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>BERLIN RECYCLING Volleys</t>
+          <t>Helios GRIZZLYS Giesen</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -19174,7 +19174,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>BERLIN RECYCLING Volleys</t>
+          <t>Helios GRIZZLYS Giesen</t>
         </is>
       </c>
       <c r="E335" t="n">
@@ -19230,7 +19230,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>BERLIN RECYCLING Volleys</t>
+          <t>Helios GRIZZLYS Giesen</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -19454,7 +19454,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>BERLIN RECYCLING Volleys</t>
+          <t>Helios GRIZZLYS Giesen</t>
         </is>
       </c>
       <c r="E340" t="n">
@@ -19510,7 +19510,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>BERLIN RECYCLING Volleys</t>
+          <t>Helios GRIZZLYS Giesen</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -19566,7 +19566,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>BERLIN RECYCLING Volleys</t>
+          <t>Helios GRIZZLYS Giesen</t>
         </is>
       </c>
       <c r="E342" t="n">
@@ -19622,7 +19622,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>BERLIN RECYCLING Volleys</t>
+          <t>Helios GRIZZLYS Giesen</t>
         </is>
       </c>
       <c r="E343" t="n">
@@ -20742,7 +20742,7 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>BERLIN RECYCLING Volleys</t>
+          <t>Helios GRIZZLYS Giesen</t>
         </is>
       </c>
       <c r="E363" t="n">
